--- a/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>INST</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,206 +665,282 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>87500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>81800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>61400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>71400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>69200</v>
+      </c>
+      <c r="J8" s="3">
         <v>68300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="K8" s="3">
         <v>62900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="L8" s="3">
         <v>58100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="M8" s="3">
         <v>56300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="N8" s="3">
         <v>55200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="O8" s="3">
         <v>50100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="P8" s="3">
         <v>48000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="Q8" s="3">
         <v>44800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="R8" s="3">
         <v>43200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="S8" s="3">
         <v>38500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="T8" s="3">
         <v>34500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="U8" s="3">
         <v>31500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="V8" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21300</v>
-      </c>
-      <c r="E9" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="3">
+        <v>24400</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="3">
         <v>20400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="L9" s="3">
         <v>18200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="M9" s="3">
         <v>17100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="N9" s="3">
         <v>16100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="O9" s="3">
         <v>14600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="P9" s="3">
         <v>14000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="Q9" s="3">
         <v>23300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="R9" s="3">
         <v>21800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="S9" s="3">
         <v>19000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="T9" s="3">
         <v>9900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="U9" s="3">
         <v>9100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="V9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="3">
         <v>47000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="3">
         <v>42500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="L10" s="3">
         <v>39900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="M10" s="3">
         <v>39200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="N10" s="3">
         <v>39100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="O10" s="3">
         <v>35500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="P10" s="3">
         <v>34000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="Q10" s="3">
         <v>21500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="R10" s="3">
         <v>21400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="S10" s="3">
         <v>19500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="T10" s="3">
         <v>24600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="U10" s="3">
         <v>22400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="V10" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,52 +957,76 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>21800</v>
-      </c>
-      <c r="E12" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="3">
+        <v>19300</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="3">
         <v>20900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="L12" s="3">
         <v>18900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="M12" s="3">
         <v>14300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="N12" s="3">
         <v>15600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="O12" s="3">
         <v>14800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="P12" s="3">
         <v>14700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="Q12" s="3">
         <v>13500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="R12" s="3">
         <v>12600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="S12" s="3">
         <v>11100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="T12" s="3">
         <v>11200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="U12" s="3">
         <v>10100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="V12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,31 +1069,49 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1010,52 +1131,88 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>1300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="O15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="P15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1226,138 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>88900</v>
-      </c>
-      <c r="E17" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="3">
+        <v>88000</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="3">
         <v>85400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="L17" s="3">
         <v>77500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="M17" s="3">
         <v>64500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="N17" s="3">
         <v>67200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="O17" s="3">
         <v>62500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="P17" s="3">
         <v>60100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="Q17" s="3">
         <v>55200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="R17" s="3">
         <v>54800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="S17" s="3">
         <v>48700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="T17" s="3">
         <v>46100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="U17" s="3">
         <v>44400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="V17" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="E18" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="3">
         <v>-22500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="L18" s="3">
         <v>-19400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="M18" s="3">
         <v>-8200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="N18" s="3">
         <v>-12000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="O18" s="3">
         <v>-12400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="P18" s="3">
         <v>-12100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="Q18" s="3">
         <v>-10400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="R18" s="3">
         <v>-11600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="S18" s="3">
         <v>-10200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="T18" s="3">
         <v>-11600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="U18" s="3">
         <v>-12900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="V18" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1175,119 +1374,161 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>700</v>
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H20" s="3">
-        <v>600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>400</v>
+        <v>-5400</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>500</v>
+      </c>
+      <c r="M20" s="3">
+        <v>700</v>
+      </c>
+      <c r="N20" s="3">
+        <v>600</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="E21" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="3">
         <v>-17200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="L21" s="3">
         <v>-15400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="M21" s="3">
         <v>-4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="N21" s="3">
         <v>-8400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="O21" s="3">
         <v>-9600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="P21" s="3">
         <v>-8900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="Q21" s="3">
         <v>-8100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="R21" s="3">
         <v>-9600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="S21" s="3">
         <v>-8500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="T21" s="3">
         <v>-10100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="U21" s="3">
         <v>-11600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="V21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+        <v>17300</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1307,84 +1548,120 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="E23" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="3">
         <v>-22500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="L23" s="3">
         <v>-18900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="M23" s="3">
         <v>-7600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="N23" s="3">
         <v>-11400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="O23" s="3">
         <v>-12400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="P23" s="3">
         <v>-11700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="Q23" s="3">
         <v>-10300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="R23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="S23" s="3">
         <v>-10100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="T23" s="3">
         <v>-11500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="U23" s="3">
         <v>-12900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="V23" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="L24" s="3">
         <v>-2800</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
       <c r="M24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1393,10 +1670,28 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
+        <v>100</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1439,96 +1734,150 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="E26" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="3">
         <v>-20700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="L26" s="3">
         <v>-16100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="M26" s="3">
         <v>-7600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="N26" s="3">
         <v>-11500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="O26" s="3">
         <v>-12500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="P26" s="3">
         <v>-11900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="Q26" s="3">
         <v>-9700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="R26" s="3">
         <v>-11500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="S26" s="3">
         <v>-10300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="T26" s="3">
         <v>-11600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="U26" s="3">
         <v>-12900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="V26" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="E27" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="3">
         <v>-20700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="L27" s="3">
         <v>-16100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="M27" s="3">
         <v>-7600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="N27" s="3">
         <v>-11500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="O27" s="3">
         <v>-12500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="P27" s="3">
         <v>-11900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="Q27" s="3">
         <v>-9700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="R27" s="3">
         <v>-11500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="S27" s="3">
         <v>-10300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="T27" s="3">
         <v>-11600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="U27" s="3">
         <v>-12900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="V27" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1571,8 +1920,26 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1615,8 +1982,26 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1659,8 +2044,26 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1703,96 +2106,150 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-700</v>
+        <v>600</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-400</v>
+        <v>5400</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="E33" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="3">
         <v>-20700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="L33" s="3">
         <v>-16100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="M33" s="3">
         <v>-7600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="N33" s="3">
         <v>-11500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="O33" s="3">
         <v>-12500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="P33" s="3">
         <v>-11900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="Q33" s="3">
         <v>-9700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="R33" s="3">
         <v>-11500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="S33" s="3">
         <v>-10300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="T33" s="3">
         <v>-11600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="U33" s="3">
         <v>-12900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="V33" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,101 +2292,155 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="E35" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" s="3">
         <v>-20700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="L35" s="3">
         <v>-16100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="M35" s="3">
         <v>-7600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="N35" s="3">
         <v>-11500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="O35" s="3">
         <v>-12500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="P35" s="3">
         <v>-11900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="Q35" s="3">
         <v>-9700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="R35" s="3">
         <v>-11500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="S35" s="3">
         <v>-10300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="T35" s="3">
         <v>-11600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="U35" s="3">
         <v>-12900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="V35" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1946,8 +2457,14 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1964,140 +2481,200 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>122200</v>
-      </c>
-      <c r="E41" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41" s="3">
         <v>28700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="L41" s="3">
         <v>49300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="M41" s="3">
         <v>94300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="N41" s="3">
         <v>111000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="O41" s="3">
         <v>68000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="P41" s="3">
         <v>136700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="Q41" s="3">
         <v>35700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="R41" s="3">
         <v>58700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="S41" s="3">
         <v>25700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="T41" s="3">
         <v>28300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="U41" s="3">
         <v>44500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="V41" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>18800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="L42" s="3">
         <v>41800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="M42" s="3">
         <v>58600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="N42" s="3">
         <v>60400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="O42" s="3">
         <v>48600</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>5700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="R42" s="3">
         <v>8100</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>10000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="U42" s="3">
         <v>23900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="V42" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>41700</v>
-      </c>
-      <c r="E43" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="3">
         <v>109200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="L43" s="3">
         <v>26700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="M43" s="3">
         <v>35500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="N43" s="3">
         <v>47500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="O43" s="3">
         <v>93800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="P43" s="3">
         <v>25500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="Q43" s="3">
         <v>34300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="R43" s="3">
         <v>35500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="S43" s="3">
         <v>73000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="T43" s="3">
         <v>12800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="U43" s="3">
         <v>18100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="V43" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2140,96 +2717,150 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>31100</v>
-      </c>
-      <c r="E45" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="3">
         <v>39400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="L45" s="3">
         <v>38900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="M45" s="3">
         <v>24200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="N45" s="3">
         <v>21000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="O45" s="3">
         <v>20200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="P45" s="3">
         <v>18100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="Q45" s="3">
         <v>21000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="R45" s="3">
         <v>7900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="S45" s="3">
         <v>8600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="T45" s="3">
         <v>11900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="U45" s="3">
         <v>6400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="V45" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>199900</v>
-      </c>
-      <c r="E46" s="3">
+        <v>156800</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="3">
         <v>196000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="L46" s="3">
         <v>156800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="M46" s="3">
         <v>212600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="N46" s="3">
         <v>240000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="O46" s="3">
         <v>230500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="P46" s="3">
         <v>180400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="Q46" s="3">
         <v>96700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="R46" s="3">
         <v>110100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="S46" s="3">
         <v>107300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="T46" s="3">
         <v>62900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="U46" s="3">
         <v>92900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="V46" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2272,96 +2903,150 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>66000</v>
-      </c>
-      <c r="E48" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="3">
         <v>67000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="L48" s="3">
         <v>66400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="M48" s="3">
         <v>27400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="N48" s="3">
         <v>27000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="O48" s="3">
         <v>27500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="P48" s="3">
         <v>27100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="Q48" s="3">
         <v>23900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="R48" s="3">
         <v>20900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="S48" s="3">
         <v>18900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="T48" s="3">
         <v>16900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="U48" s="3">
         <v>14700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="V48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>105100</v>
-      </c>
-      <c r="E49" s="3">
+        <v>1894400</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="3">
         <v>108300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="L49" s="3">
         <v>64900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="M49" s="3">
         <v>18600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="N49" s="3">
         <v>19300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="O49" s="3">
         <v>20000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="P49" s="3">
         <v>20600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="Q49" s="3">
         <v>30000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="R49" s="3">
         <v>1700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="S49" s="3">
         <v>1800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="T49" s="3">
         <v>1900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="U49" s="3">
         <v>1700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="V49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2404,8 +3089,26 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2448,52 +3151,88 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>19900</v>
-      </c>
-      <c r="E52" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="3">
         <v>20200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="L52" s="3">
         <v>18100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="M52" s="3">
         <v>15400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="N52" s="3">
         <v>15900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="O52" s="3">
         <v>15000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="P52" s="3">
         <v>14600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="Q52" s="3">
         <v>14600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="R52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="S52" s="3">
         <v>2000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="T52" s="3">
         <v>2100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="U52" s="3">
         <v>2000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="V52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2536,52 +3275,88 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>391000</v>
-      </c>
-      <c r="E54" s="3">
+        <v>2109100</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" s="3">
         <v>391400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="L54" s="3">
         <v>306100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="M54" s="3">
         <v>274000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="N54" s="3">
         <v>302200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="O54" s="3">
         <v>293000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="P54" s="3">
         <v>242800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="Q54" s="3">
         <v>156600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="R54" s="3">
         <v>135500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="S54" s="3">
         <v>130100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="T54" s="3">
         <v>83900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="U54" s="3">
         <v>111300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="V54" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2598,8 +3373,14 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2616,75 +3397,99 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>7600</v>
-      </c>
-      <c r="E57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="3">
         <v>9700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="L57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="M57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="N57" s="3">
         <v>11500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="O57" s="3">
         <v>7000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="P57" s="3">
         <v>6400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="R57" s="3">
         <v>10100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="S57" s="3">
         <v>4900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="T57" s="3">
         <v>4400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="U57" s="3">
         <v>5400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="V57" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2704,101 +3509,155 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>183300</v>
-      </c>
-      <c r="E59" s="3">
+        <v>165600</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K59" s="3">
         <v>175100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="L59" s="3">
         <v>106700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="M59" s="3">
         <v>128400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="N59" s="3">
         <v>151800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="O59" s="3">
         <v>142600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="P59" s="3">
         <v>91200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="Q59" s="3">
         <v>114400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="R59" s="3">
         <v>123900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="S59" s="3">
         <v>117200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="T59" s="3">
         <v>66200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="U59" s="3">
         <v>84400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="V59" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>190900</v>
-      </c>
-      <c r="E60" s="3">
+        <v>182400</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K60" s="3">
         <v>184700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="L60" s="3">
         <v>112800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="M60" s="3">
         <v>132000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="N60" s="3">
         <v>163300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="O60" s="3">
         <v>149600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="P60" s="3">
         <v>97600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="Q60" s="3">
         <v>117300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="R60" s="3">
         <v>134100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="S60" s="3">
         <v>122000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="T60" s="3">
         <v>70600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="U60" s="3">
         <v>89800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="V60" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>772400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2836,52 +3695,88 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>49300</v>
-      </c>
-      <c r="E62" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="3">
         <v>50200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="L62" s="3">
         <v>47500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="M62" s="3">
         <v>13500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="N62" s="3">
         <v>13000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="O62" s="3">
         <v>13300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="P62" s="3">
         <v>12700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="Q62" s="3">
         <v>12500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="R62" s="3">
         <v>12300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="S62" s="3">
         <v>12200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="T62" s="3">
         <v>11600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="U62" s="3">
         <v>11600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="V62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2924,8 +3819,26 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2968,8 +3881,26 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3012,52 +3943,88 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>240200</v>
-      </c>
-      <c r="E66" s="3">
+        <v>1052100</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="3">
         <v>234900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="L66" s="3">
         <v>160300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="M66" s="3">
         <v>145600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="N66" s="3">
         <v>176200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="O66" s="3">
         <v>162900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="P66" s="3">
         <v>110300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="Q66" s="3">
         <v>129700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="R66" s="3">
         <v>146300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="S66" s="3">
         <v>134200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="T66" s="3">
         <v>82200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="U66" s="3">
         <v>101400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="V66" s="3">
         <v>110900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3074,8 +4041,14 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3118,8 +4091,26 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3162,8 +4153,26 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3206,8 +4215,26 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3250,52 +4277,88 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-325200</v>
-      </c>
-      <c r="E72" s="3">
+        <v>-211100</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K72" s="3">
         <v>-304300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="L72" s="3">
         <v>-283600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="M72" s="3">
         <v>-267400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="N72" s="3">
         <v>-259800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="O72" s="3">
         <v>-248400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="P72" s="3">
         <v>-235800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="Q72" s="3">
         <v>-224000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="R72" s="3">
         <v>-234800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="S72" s="3">
         <v>-222400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="T72" s="3">
         <v>-209500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="U72" s="3">
         <v>-196500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="V72" s="3">
         <v>-183500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3338,8 +4401,26 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3382,8 +4463,26 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3426,52 +4525,88 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>150700</v>
-      </c>
-      <c r="E76" s="3">
+        <v>1057000</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K76" s="3">
         <v>156500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="L76" s="3">
         <v>145800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="M76" s="3">
         <v>128400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="N76" s="3">
         <v>125900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="O76" s="3">
         <v>130100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="P76" s="3">
         <v>132400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="Q76" s="3">
         <v>26900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="R76" s="3">
         <v>-10900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="S76" s="3">
         <v>-4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="T76" s="3">
         <v>1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="U76" s="3">
         <v>10000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="V76" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3514,101 +4649,155 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="E81" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K81" s="3">
         <v>-20700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="L81" s="3">
         <v>-16100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="M81" s="3">
         <v>-7600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="N81" s="3">
         <v>-11500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="O81" s="3">
         <v>-12500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="P81" s="3">
         <v>-11900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="Q81" s="3">
         <v>-9700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="R81" s="3">
         <v>-11500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="S81" s="3">
         <v>-10300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="T81" s="3">
         <v>-11600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="U81" s="3">
         <v>-12900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="V81" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3625,52 +4814,76 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>5700</v>
-      </c>
-      <c r="E83" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K83" s="3">
         <v>5300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="L83" s="3">
         <v>3500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="N83" s="3">
         <v>3000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="O83" s="3">
         <v>2800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="P83" s="3">
         <v>2800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="Q83" s="3">
         <v>2100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="R83" s="3">
         <v>1700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="S83" s="3">
         <v>1600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="T83" s="3">
         <v>1400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="U83" s="3">
         <v>1300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="V83" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3713,8 +4926,26 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3757,8 +4988,26 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3801,8 +5050,26 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3845,8 +5112,26 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3889,52 +5174,88 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>82200</v>
-      </c>
-      <c r="E89" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K89" s="3">
         <v>-14400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="L89" s="3">
         <v>-36200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="M89" s="3">
         <v>-20200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="N89" s="3">
         <v>54700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="O89" s="3">
         <v>-22100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="P89" s="3">
         <v>-12300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="Q89" s="3">
         <v>-25100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="R89" s="3">
         <v>43600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="S89" s="3">
         <v>-11900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="T89" s="3">
         <v>-27700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="U89" s="3">
         <v>-14900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="V89" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3951,52 +5272,76 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="N91" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-3400</v>
       </c>
       <c r="O91" s="3">
         <v>-2500</v>
       </c>
       <c r="P91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4039,8 +5384,26 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4083,52 +5446,88 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>11300</v>
-      </c>
-      <c r="E94" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="L94" s="3">
         <v>-10000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="N94" s="3">
         <v>-13100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="O94" s="3">
         <v>-51000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="P94" s="3">
         <v>900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="Q94" s="3">
         <v>-2500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="R94" s="3">
         <v>-12000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="S94" s="3">
         <v>6200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="T94" s="3">
         <v>10500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="U94" s="3">
         <v>-2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="V94" s="3">
         <v>-25900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4145,8 +5544,14 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4189,8 +5594,26 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4233,8 +5656,26 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4277,8 +5718,26 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4321,52 +5780,88 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K100" s="3">
         <v>3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="M100" s="3">
         <v>3600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="O100" s="3">
         <v>4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="P100" s="3">
         <v>112500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="Q100" s="3">
         <v>4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="S100" s="3">
         <v>3200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="U100" s="3">
         <v>2500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="V100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -4409,48 +5904,84 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>93500</v>
-      </c>
-      <c r="E102" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K102" s="3">
         <v>-20600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="L102" s="3">
         <v>-45000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="M102" s="3">
         <v>-16700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="N102" s="3">
         <v>43100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="O102" s="3">
         <v>-68800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="P102" s="3">
         <v>101000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="Q102" s="3">
         <v>-23000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="R102" s="3">
         <v>33000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="T102" s="3">
         <v>-16300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="U102" s="3">
         <v>-14400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="V102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>93600</v>
+      </c>
+      <c r="F8" s="3">
         <v>94000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>87500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>81800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>61400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>71400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>69200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>68300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>62900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>58100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>56300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>55200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>50100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>48000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>44800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>43200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>38500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>34500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>31500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>41000</v>
+      </c>
+      <c r="F9" s="3">
         <v>45600</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="3">
         <v>24400</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="3">
         <v>20400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>18200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>17100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>16100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>14600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>14000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>23300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>21800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>19000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>9900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>9100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F10" s="3">
         <v>48400</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="3">
         <v>47000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="3">
         <v>42500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>39900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>39200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>39100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>35500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>34000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>21500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>21400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>19500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>24600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>22400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F12" s="3">
         <v>17100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="3">
         <v>19300</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="3">
         <v>20900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>18900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>14300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>15600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>14800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>14700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>13500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>12600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>11100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>11200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>10100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,37 +1121,43 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1176,29 +1222,29 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>1300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>300</v>
       </c>
       <c r="O15" s="3">
         <v>300</v>
       </c>
       <c r="P15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>300</v>
+      </c>
+      <c r="R15" s="3">
         <v>400</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>105500</v>
+      </c>
+      <c r="F17" s="3">
         <v>118500</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="3">
         <v>88000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="3">
         <v>85400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>77500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>64500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>67200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>62500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>60100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>55200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>54800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>48700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>46100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>44400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-24500</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="3">
         <v>-16600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="3">
         <v>-22500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-19400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-12000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-12400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-10400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-10200</v>
       </c>
       <c r="T18" s="3">
         <v>-11600</v>
       </c>
       <c r="U18" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="W18" s="3">
         <v>-12900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,161 +1446,175 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="3">
         <v>-5400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>300</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F21" s="3">
         <v>9200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="3">
         <v>-16400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="3">
         <v>-17200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-15400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-8400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-9600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-8100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-9600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-8500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-10100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-11600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F22" s="3">
         <v>17300</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1566,132 +1646,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-42400</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="3">
         <v>-22000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="3">
         <v>-22500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-18900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-11400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-12400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-10300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-11300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-10100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-11500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-12900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-9300</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-2800</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
-      </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>-500</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>200</v>
+        <v>-500</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
       </c>
       <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>100</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-33100</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="3">
         <v>-22200</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="3">
         <v>-20700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-16100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-11500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-12500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-9700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-11500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-10300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-11600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-12900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-33100</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="3">
         <v>-22200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" s="3">
         <v>-20700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-16100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-11500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-12500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-9700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-11500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-10300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-11600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-12900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="3">
         <v>5400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-300</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-33100</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="3">
         <v>-22200</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M33" s="3">
         <v>-20700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-16100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-11500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-12500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-9700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-11500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-10300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-11600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-12900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-33100</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" s="3">
         <v>-22200</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M35" s="3">
         <v>-20700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-16100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-11500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-12500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-9700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-11500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-10300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-11600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-12900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,20 +2659,22 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>227500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>70200</v>
+      </c>
+      <c r="F41" s="3">
         <v>83000</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2513,44 +2687,50 @@
       <c r="J41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M41" s="3">
         <v>28700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>49300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>94300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>111000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>68000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>136700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>35700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>58700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>25700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>28300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>44500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2576,55 +2756,61 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>18800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>41800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>58600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>60400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>48600</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>5700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>8100</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>10000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>23900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>144100</v>
+      </c>
+      <c r="F43" s="3">
         <v>29700</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>91</v>
       </c>
@@ -2637,44 +2823,50 @@
       <c r="J43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M43" s="3">
         <v>109200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>26700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>35500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>47500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>93800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>25500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>34300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>35500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>73000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>12800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>18100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2735,20 +2927,26 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F45" s="3">
         <v>44100</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>91</v>
       </c>
@@ -2761,56 +2959,62 @@
       <c r="J45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M45" s="3">
         <v>39400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>38900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>24200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>21000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>20200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>18100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>21000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>7900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>8600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>11900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>6400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>312200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>248000</v>
+      </c>
+      <c r="F46" s="3">
         <v>156800</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>91</v>
       </c>
@@ -2823,44 +3027,50 @@
       <c r="J46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M46" s="3">
         <v>196000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>156800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>212600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>240000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>230500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>180400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>96700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>110100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>107300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>62900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>92900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2921,20 +3131,26 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F48" s="3">
         <v>31300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>91</v>
       </c>
@@ -2947,56 +3163,62 @@
       <c r="J48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M48" s="3">
         <v>67000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>66400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>27400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>27000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>27500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>27100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>23900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>20900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>18900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>16900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>14700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1846700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1879400</v>
+      </c>
+      <c r="F49" s="3">
         <v>1894400</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>91</v>
       </c>
@@ -3009,44 +3231,50 @@
       <c r="J49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M49" s="3">
         <v>108300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>64900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>18600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>19300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>20000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>20600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>30000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3169,20 +3403,26 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F52" s="3">
         <v>26600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>91</v>
       </c>
@@ -3195,44 +3435,50 @@
       <c r="J52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M52" s="3">
         <v>20200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>18100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>15400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>15900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>15000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>14600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>14600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2700</v>
-      </c>
-      <c r="S52" s="3">
-        <v>2000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>2100</v>
       </c>
       <c r="U52" s="3">
         <v>2000</v>
       </c>
       <c r="V52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3293,20 +3539,26 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2215300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2184800</v>
+      </c>
+      <c r="F54" s="3">
         <v>2109100</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>91</v>
       </c>
@@ -3319,44 +3571,50 @@
       <c r="J54" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M54" s="3">
         <v>391400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>306100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>274000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>302200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>293000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>242800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>156600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>135500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>130100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>83900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>111300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3403,20 +3663,22 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F57" s="3">
         <v>11200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>91</v>
       </c>
@@ -3429,55 +3691,61 @@
       <c r="J57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M57" s="3">
         <v>9700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>6100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>11500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>10100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>5400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>91</v>
+      <c r="F58" s="3">
+        <v>5600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>91</v>
@@ -3491,11 +3759,11 @@
       <c r="J58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3527,20 +3795,26 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>301400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>266600</v>
+      </c>
+      <c r="F59" s="3">
         <v>165600</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>91</v>
       </c>
@@ -3553,56 +3827,62 @@
       <c r="J59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M59" s="3">
         <v>175100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>106700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>128400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>151800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>142600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>91200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>114400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>123900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>117200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>66200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>84400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>325900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>287300</v>
+      </c>
+      <c r="F60" s="3">
         <v>182400</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>91</v>
       </c>
@@ -3615,56 +3895,62 @@
       <c r="J60" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M60" s="3">
         <v>184700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>112800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>132000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>163300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>149600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>97600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>117300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>134100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>122000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>70600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>89800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>771000</v>
+      </c>
+      <c r="F61" s="3">
         <v>772400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3713,20 +3999,26 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>89300</v>
+      </c>
+      <c r="F62" s="3">
         <v>97200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>91</v>
       </c>
@@ -3739,44 +4031,50 @@
       <c r="J62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M62" s="3">
         <v>50200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>47500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>13500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>13000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>13300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>12700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>12500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>12300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>12200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>11600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>11600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3961,20 +4271,26 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>926300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1147600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1052100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>91</v>
       </c>
@@ -3987,44 +4303,50 @@
       <c r="J66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M66" s="3">
         <v>234900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>160300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>145600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>176200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>162900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>110300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>129700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>146300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>134200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>82200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>101400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>110900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4295,20 +4637,26 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-246000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-232700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-211100</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>91</v>
       </c>
@@ -4321,44 +4669,50 @@
       <c r="J72" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M72" s="3">
         <v>-304300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-283600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-267400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-259800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-248400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-235800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-224000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-234800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-222400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-209500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-196500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-183500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4543,20 +4909,26 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1289000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1037200</v>
+      </c>
+      <c r="F76" s="3">
         <v>1057000</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>91</v>
       </c>
@@ -4569,44 +4941,50 @@
       <c r="J76" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M76" s="3">
         <v>156500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>145800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>128400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>125900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>130100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>132400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>26900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-10900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-4100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>10000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-33100</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" s="3">
         <v>-22200</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M81" s="3">
         <v>-20700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-16100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-11500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-12500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-9700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-11500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-10300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-11600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-12900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4820,20 +5216,22 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F83" s="3">
         <v>34300</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>91</v>
       </c>
@@ -4846,44 +5244,50 @@
       <c r="J83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M83" s="3">
         <v>5300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>3000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>1400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>1300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5192,20 +5620,26 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>161200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-58700</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>91</v>
       </c>
@@ -5218,44 +5652,50 @@
       <c r="J89" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M89" s="3">
         <v>-14400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-36200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-20200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>54700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-22100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-25100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>43600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-11900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-27700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-14900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5278,20 +5718,22 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>91</v>
       </c>
@@ -5304,44 +5746,50 @@
       <c r="J91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-4900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-3800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-3400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-2500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5464,20 +5918,26 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F94" s="3">
         <v>45600</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>91</v>
       </c>
@@ -5490,44 +5950,50 @@
       <c r="J94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M94" s="3">
         <v>-9900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-10000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-13100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-51000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-12000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>6200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>10500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-25900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5798,20 +6284,26 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-50100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>91</v>
       </c>
@@ -5824,44 +6316,50 @@
       <c r="J100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M100" s="3">
         <v>3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>112500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>4500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>3200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -5922,20 +6420,26 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>157300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-63200</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>91</v>
       </c>
@@ -5948,40 +6452,46 @@
       <c r="J102" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M102" s="3">
         <v>-20600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-45000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-16700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>43100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-68800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>101000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-23000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>33000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-16300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-14400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E8" s="3">
         <v>107200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>93600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>94000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>87500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>81800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>61400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>71400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>69200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>62900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>58100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>56300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>55200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>50100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>48000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>44800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>43200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>38500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>34500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>31500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E9" s="3">
         <v>41500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>45600</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="3">
         <v>24400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="3">
         <v>20400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>23300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>21800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E10" s="3">
         <v>65700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>52600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>48400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="3">
         <v>47000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="3">
         <v>42500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>39900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>39200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>39100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>34000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>21400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>19500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>24600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>22400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E12" s="3">
         <v>15800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="3">
         <v>19300</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="3">
         <v>20900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>13500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,40 +1143,43 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>22400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>91</v>
+      <c r="J14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1228,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>1300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>300</v>
       </c>
       <c r="P15" s="3">
         <v>300</v>
@@ -1243,11 +1265,11 @@
         <v>300</v>
       </c>
       <c r="R15" s="3">
+        <v>300</v>
+      </c>
+      <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>138400</v>
+      </c>
+      <c r="E17" s="3">
         <v>112200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>105500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>118500</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="3">
         <v>88000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="3">
         <v>85400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>77500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>64500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>62500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>60100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>55200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>54800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>48700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>46100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>44400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24500</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="3">
         <v>-16600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="3">
         <v>-22500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-11600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-12900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,64 +1480,65 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
@@ -1514,110 +1547,116 @@
         <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E21" s="3">
         <v>27900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="3">
         <v>-16400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="3">
         <v>-17200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-8100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-9600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-10100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-11600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E22" s="3">
         <v>11300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17300</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>91</v>
+      <c r="J22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1652,117 +1691,123 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-42400</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="3">
         <v>-22000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="3">
         <v>-22500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-12900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-9300</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2800</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
@@ -1771,25 +1816,28 @@
         <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
         <v>-500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
-      </c>
-      <c r="V24" s="3">
-        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>100</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33100</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="3">
         <v>-22200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" s="3">
         <v>-20700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-16100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-10300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-11600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-12900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-33100</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="3">
         <v>-22200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="3">
         <v>-20700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-10300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-12900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,64 +2330,67 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="3">
         <v>5400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
@@ -2330,78 +2399,84 @@
         <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-33100</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="3">
         <v>-22200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="3">
         <v>-20700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-16100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-12900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-33100</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" s="3">
         <v>-22200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N35" s="3">
         <v>-20700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-16100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-12900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2661,23 +2746,24 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>164900</v>
+      </c>
+      <c r="E41" s="3">
         <v>227500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>70200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>83000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2693,44 +2779,47 @@
       <c r="L41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="3">
         <v>28700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>94300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>111000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>68000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>136700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>58700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>28300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>44500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2762,58 +2851,61 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>18800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>41800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>58600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>60400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>48600</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>5700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8100</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>10000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>23900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E43" s="3">
         <v>54800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>144100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29700</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>91</v>
       </c>
@@ -2829,44 +2921,47 @@
       <c r="L43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N43" s="3">
         <v>109200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>35500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>47500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>93800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>34300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>35500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>73000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>12800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>18100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2933,23 +3028,26 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E45" s="3">
         <v>29900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>33700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>91</v>
       </c>
@@ -2965,59 +3063,62 @@
       <c r="L45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="3">
         <v>39400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>18100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>246800</v>
+      </c>
+      <c r="E46" s="3">
         <v>312200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>248000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>156800</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>91</v>
       </c>
@@ -3033,44 +3134,47 @@
       <c r="L46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N46" s="3">
         <v>196000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>156800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>212600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>240000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>230500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>180400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>96700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>110100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>107300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>62900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>92900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3137,23 +3241,26 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E48" s="3">
         <v>29600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>91</v>
       </c>
@@ -3169,59 +3276,62 @@
       <c r="L48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N48" s="3">
         <v>67000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>66400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>23900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1824000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1846700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1879400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1894400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>91</v>
       </c>
@@ -3237,44 +3347,47 @@
       <c r="L49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="3">
         <v>108300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>64900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>19300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>30000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3409,23 +3525,26 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E52" s="3">
         <v>26800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>26900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>26600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>91</v>
       </c>
@@ -3441,44 +3560,47 @@
       <c r="L52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="3">
         <v>20200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>14600</v>
       </c>
       <c r="S52" s="3">
         <v>14600</v>
       </c>
       <c r="T52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="U52" s="3">
         <v>2700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3545,23 +3667,26 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2133800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2215300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2184800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2109100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>91</v>
       </c>
@@ -3577,44 +3702,47 @@
       <c r="L54" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N54" s="3">
         <v>391400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>306100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>274000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>302200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>293000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>242800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>156600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>135500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>130100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>83900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>111300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3665,23 +3794,24 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E57" s="3">
         <v>22300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>91</v>
       </c>
@@ -3697,58 +3827,61 @@
       <c r="L57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N57" s="3">
         <v>9700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5600</v>
       </c>
       <c r="F58" s="3">
         <v>5600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>91</v>
+      <c r="G58" s="3">
+        <v>5600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>91</v>
@@ -3765,8 +3898,8 @@
       <c r="L58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3801,23 +3934,26 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E59" s="3">
         <v>301400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>266600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>165600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>91</v>
       </c>
@@ -3833,59 +3969,62 @@
       <c r="L59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N59" s="3">
         <v>175100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>106700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>128400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>151800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>142600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>91200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>114400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>123900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>117200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>66200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>84400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>297100</v>
+      </c>
+      <c r="E60" s="3">
         <v>325900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>287300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>182400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>91</v>
       </c>
@@ -3901,59 +4040,62 @@
       <c r="L60" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N60" s="3">
         <v>184700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>112800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>132000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>163300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>149600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>97600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>117300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>134100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>122000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>70600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>89800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>490500</v>
+      </c>
+      <c r="E61" s="3">
         <v>515000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>771000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>772400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4005,23 +4147,26 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E62" s="3">
         <v>85400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>89300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>97200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>91</v>
       </c>
@@ -4037,44 +4182,47 @@
       <c r="L62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N62" s="3">
         <v>50200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>47500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12200</v>
-      </c>
-      <c r="V62" s="3">
-        <v>11600</v>
       </c>
       <c r="W62" s="3">
         <v>11600</v>
       </c>
       <c r="X62" s="3">
+        <v>11600</v>
+      </c>
+      <c r="Y62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,23 +4431,26 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>859400</v>
+      </c>
+      <c r="E66" s="3">
         <v>926300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1147600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1052100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>91</v>
       </c>
@@ -4309,44 +4466,47 @@
       <c r="L66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="3">
         <v>234900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>160300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>145600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>176200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>162900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>110300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>129700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>146300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>134200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>82200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>101400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>110900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4643,23 +4813,26 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-266700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-246000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-232700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-211100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>91</v>
       </c>
@@ -4675,44 +4848,47 @@
       <c r="L72" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N72" s="3">
         <v>-304300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-283600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-267400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-259800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-248400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-235800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-224000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-234800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-222400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-209500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-196500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-183500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4915,23 +5097,26 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1274400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1289000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1037200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1057000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>91</v>
       </c>
@@ -4947,44 +5132,47 @@
       <c r="L76" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N76" s="3">
         <v>156500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>145800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>128400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>125900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>130100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>132400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-10900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-33100</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K81" s="3">
         <v>-22200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N81" s="3">
         <v>-20700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-16100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-12900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5218,23 +5415,24 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E83" s="3">
         <v>34500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>91</v>
       </c>
@@ -5250,44 +5448,47 @@
       <c r="L83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N83" s="3">
         <v>5300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>3000</v>
       </c>
       <c r="P83" s="3">
         <v>3000</v>
       </c>
       <c r="Q83" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="R83" s="3">
         <v>2800</v>
       </c>
       <c r="S83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T83" s="3">
         <v>2100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5626,23 +5839,26 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>161200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-58700</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>91</v>
       </c>
@@ -5658,44 +5874,47 @@
       <c r="L89" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N89" s="3">
         <v>-14400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-36200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>54700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-22100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-25100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>43600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-11900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-27700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-14900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5720,23 +5939,24 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="E91" s="3">
         <v>-1200</v>
       </c>
       <c r="F91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>91</v>
       </c>
@@ -5752,44 +5972,47 @@
       <c r="L91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5924,23 +6150,26 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>45600</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>91</v>
       </c>
@@ -5956,44 +6185,47 @@
       <c r="L94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N94" s="3">
         <v>-9900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-51000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>6200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>10500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-25900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6290,23 +6532,26 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-50100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>91</v>
       </c>
@@ -6322,44 +6567,47 @@
       <c r="L100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N100" s="3">
         <v>3700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>112500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -6426,23 +6674,26 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="E102" s="3">
         <v>157300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-63200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>91</v>
       </c>
@@ -6458,40 +6709,43 @@
       <c r="L102" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N102" s="3">
         <v>-20600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-45000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>43100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-68800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>101000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>33000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-16300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-14400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>INST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E8" s="3">
         <v>110600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>107200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>93600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>94000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>87500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>81800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>61400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>71400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>69200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>68300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>62900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>58100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>56300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>55200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>50100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>48000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>44800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>43200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>38500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>34500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>31500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E9" s="3">
         <v>41800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45600</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="3">
         <v>24400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" s="3">
         <v>20400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>23300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>21800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>19000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E10" s="3">
         <v>68800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>65700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>52600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>48400</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="3">
         <v>47000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="3">
         <v>42500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>39900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>39200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>34000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>21500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>21400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>19500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>24600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>22400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E12" s="3">
         <v>16600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="3">
         <v>19300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="3">
         <v>20900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,43 +1163,46 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>22400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>91</v>
+      <c r="K14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1253,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>1300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>600</v>
-      </c>
-      <c r="P15" s="3">
-        <v>300</v>
       </c>
       <c r="Q15" s="3">
         <v>300</v>
@@ -1268,11 +1291,11 @@
         <v>300</v>
       </c>
       <c r="S15" s="3">
+        <v>300</v>
+      </c>
+      <c r="T15" s="3">
         <v>400</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E17" s="3">
         <v>138400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>112200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>105500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>118500</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="3">
         <v>88000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="3">
         <v>85400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>77500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>64500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>62500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>60100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>55200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>54800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>48700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>46100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>44400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-24500</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="3">
         <v>-16600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="3">
         <v>-22500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-10200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-11600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,67 +1514,68 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="3">
         <v>-5400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
-      </c>
-      <c r="V20" s="3">
-        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
@@ -1550,116 +1584,122 @@
         <v>100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E21" s="3">
         <v>6500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="3">
         <v>-16400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" s="3">
         <v>-17200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-15400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-9600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-8900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-8100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-9600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-10100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>6200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17300</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>91</v>
+      <c r="K22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1694,123 +1734,129 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-42400</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="3">
         <v>-22000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" s="3">
         <v>-22500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-10100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-13700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-9300</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" s="3">
         <v>-1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2800</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
@@ -1819,25 +1865,28 @@
         <v>100</v>
       </c>
       <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
         <v>-500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
-      </c>
-      <c r="W24" s="3">
-        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>100</v>
       </c>
       <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-33100</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="3">
         <v>-22200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" s="3">
         <v>-20700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-16100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-11600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-33100</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="3">
         <v>-22200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" s="3">
         <v>-20700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-10300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-11600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2333,67 +2400,70 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="3">
         <v>5400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
@@ -2402,81 +2472,87 @@
         <v>-100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-33100</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" s="3">
         <v>-22200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O33" s="3">
         <v>-20700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-10300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-33100</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" s="3">
         <v>-22200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O35" s="3">
         <v>-20700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-10300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2747,26 +2833,27 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>100900</v>
+      </c>
+      <c r="E41" s="3">
         <v>164900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>227500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>70200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>83000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2782,44 +2869,47 @@
       <c r="M41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O41" s="3">
         <v>28700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>49300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>94300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>111000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>68000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>136700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>35700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>58700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>28300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>44500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2854,61 +2944,64 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>18800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>41800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>58600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>60400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>48600</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>5700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8100</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>10000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>23900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E43" s="3">
         <v>51600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>144100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>91</v>
       </c>
@@ -2924,44 +3017,47 @@
       <c r="M43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O43" s="3">
         <v>109200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>35500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>47500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>93800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>34300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>35500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>73000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>12800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>18100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3031,26 +3127,29 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E45" s="3">
         <v>30300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>91</v>
       </c>
@@ -3066,62 +3165,65 @@
       <c r="M45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O45" s="3">
         <v>39400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>38900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>11900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E46" s="3">
         <v>246800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>312200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>248000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>156800</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>91</v>
       </c>
@@ -3137,44 +3239,47 @@
       <c r="M46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O46" s="3">
         <v>196000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>156800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>212600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>240000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>230500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>180400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>96700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>110100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>107300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>62900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>92900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3244,26 +3349,29 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E48" s="3">
         <v>29000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>91</v>
       </c>
@@ -3279,62 +3387,65 @@
       <c r="M48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O48" s="3">
         <v>67000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>66400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>23900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1790200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1824000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1846700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1879400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1894400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>91</v>
       </c>
@@ -3350,44 +3461,47 @@
       <c r="M49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O49" s="3">
         <v>108300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>64900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>19300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>30000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3528,26 +3645,29 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E52" s="3">
         <v>34000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>26800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>26900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>26600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>91</v>
       </c>
@@ -3563,44 +3683,47 @@
       <c r="M52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O52" s="3">
         <v>20200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>14600</v>
       </c>
       <c r="T52" s="3">
         <v>14600</v>
       </c>
       <c r="U52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="V52" s="3">
         <v>2700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3670,26 +3793,29 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2056100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2133800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2215300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2184800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2109100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>91</v>
       </c>
@@ -3705,44 +3831,47 @@
       <c r="M54" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O54" s="3">
         <v>391400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>306100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>274000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>302200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>293000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>242800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>156600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>135500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>130100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>83900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>111300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3795,26 +3925,27 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E57" s="3">
         <v>18300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>91</v>
       </c>
@@ -3830,61 +3961,64 @@
       <c r="M57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O57" s="3">
         <v>9700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5600</v>
       </c>
       <c r="G58" s="3">
         <v>5600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>91</v>
+      <c r="H58" s="3">
+        <v>5600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>91</v>
@@ -3901,8 +4035,8 @@
       <c r="M58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3937,26 +4071,29 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>205200</v>
+      </c>
+      <c r="E59" s="3">
         <v>276000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>301400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>266600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>165600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>91</v>
       </c>
@@ -3972,62 +4109,65 @@
       <c r="M59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O59" s="3">
         <v>175100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>106700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>128400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>151800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>142600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>91200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>114400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>123900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>117200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>66200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>84400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E60" s="3">
         <v>297100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>325900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>287300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>182400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>91</v>
       </c>
@@ -4043,62 +4183,65 @@
       <c r="M60" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O60" s="3">
         <v>184700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>112800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>132000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>163300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>149600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>97600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>117300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>134100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>122000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>70600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>89800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>489500</v>
+      </c>
+      <c r="E61" s="3">
         <v>490500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>515000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>771000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>772400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4150,26 +4293,29 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E62" s="3">
         <v>71800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>85400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>89300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>97200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>91</v>
       </c>
@@ -4185,44 +4331,47 @@
       <c r="M62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O62" s="3">
         <v>50200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>47500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12200</v>
-      </c>
-      <c r="W62" s="3">
-        <v>11600</v>
       </c>
       <c r="X62" s="3">
         <v>11600</v>
       </c>
       <c r="Y62" s="3">
+        <v>11600</v>
+      </c>
+      <c r="Z62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4434,26 +4589,29 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>776600</v>
+      </c>
+      <c r="E66" s="3">
         <v>859400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>926300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1147600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1052100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>91</v>
       </c>
@@ -4469,44 +4627,47 @@
       <c r="M66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O66" s="3">
         <v>234900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>160300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>145600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>176200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>162900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>110300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>129700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>146300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>134200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>82200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>101400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>110900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4816,26 +4987,29 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-272200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-266700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-246000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-232700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-211100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>91</v>
       </c>
@@ -4851,44 +5025,47 @@
       <c r="M72" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O72" s="3">
         <v>-304300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-283600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-267400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-259800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-248400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-235800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-224000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-234800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-222400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-209500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-196500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-183500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5100,26 +5283,29 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1279500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1274400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1289000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1037200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1057000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>91</v>
       </c>
@@ -5135,44 +5321,47 @@
       <c r="M76" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O76" s="3">
         <v>156500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>145800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>128400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>125900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>130100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>132400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-10900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-33100</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L81" s="3">
         <v>-22200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O81" s="3">
         <v>-20700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-10300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5425,17 +5624,17 @@
         <v>34700</v>
       </c>
       <c r="E83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="F83" s="3">
         <v>34500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>91</v>
       </c>
@@ -5451,44 +5650,47 @@
       <c r="M83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O83" s="3">
         <v>5300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>3000</v>
       </c>
       <c r="Q83" s="3">
         <v>3000</v>
       </c>
       <c r="R83" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="S83" s="3">
         <v>2800</v>
       </c>
       <c r="T83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U83" s="3">
         <v>2100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5842,26 +6056,29 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>161200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-58700</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>91</v>
       </c>
@@ -5877,44 +6094,47 @@
       <c r="M89" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O89" s="3">
         <v>-14400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-36200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>54700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-22100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-12300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-25100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>43600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-11900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-27700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-14900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5940,26 +6160,27 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1200</v>
       </c>
       <c r="F91" s="3">
         <v>-1200</v>
       </c>
       <c r="G91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>91</v>
       </c>
@@ -5975,44 +6196,47 @@
       <c r="M91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O91" s="3">
         <v>-2700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6153,26 +6380,29 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>45600</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>91</v>
       </c>
@@ -6188,44 +6418,47 @@
       <c r="M94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O94" s="3">
         <v>-9900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-51000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>6200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>10500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-25900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6535,26 +6778,29 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-47800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-50100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>91</v>
       </c>
@@ -6570,67 +6816,70 @@
       <c r="M100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O100" s="3">
         <v>3700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>112500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6677,26 +6926,29 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-62600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>157300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-63200</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>91</v>
       </c>
@@ -6712,40 +6964,43 @@
       <c r="M102" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O102" s="3">
         <v>-20600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-45000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>43100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-68800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>101000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-23000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>33000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-16300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-14400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>INST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E8" s="3">
         <v>113500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>110600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>107200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>93600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>94000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>87500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>81800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>61400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>71400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>69200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>68300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>62900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>58100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>56300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>55200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>50100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>48000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>44800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>43200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>38500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>34500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>31500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>41800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>41500</v>
+      </c>
+      <c r="H9" s="3">
         <v>41000</v>
       </c>
-      <c r="E9" s="3">
-        <v>41800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>41500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>41000</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45600</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="3">
         <v>24400</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="3">
         <v>20400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>23300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>21800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>19000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>9100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>72500</v>
+        <v>72300</v>
       </c>
       <c r="E10" s="3">
+        <v>72600</v>
+      </c>
+      <c r="F10" s="3">
         <v>68800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>65700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>52600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>48400</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="3">
         <v>47000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="3">
         <v>42500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>39900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>39100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>34000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>21500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>21400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>19500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>24600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>22400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>17200</v>
+        <v>18200</v>
       </c>
       <c r="E12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F12" s="3">
         <v>16600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="3">
         <v>19300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="3">
         <v>20900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>14700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>13500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>12600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>11200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>10100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,46 +1183,49 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="E14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F14" s="3">
         <v>22400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>91</v>
+      <c r="L14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1240,31 +1260,34 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>18300</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>18000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1279,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>1300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>600</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>300</v>
       </c>
       <c r="R15" s="3">
         <v>300</v>
@@ -1294,11 +1317,11 @@
         <v>300</v>
       </c>
       <c r="T15" s="3">
+        <v>300</v>
+      </c>
+      <c r="U15" s="3">
         <v>400</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>117100</v>
+        <v>124700</v>
       </c>
       <c r="E17" s="3">
+        <v>117400</v>
+      </c>
+      <c r="F17" s="3">
         <v>138400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>112200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>105500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>118500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="3">
         <v>88000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="3">
         <v>85400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>77500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>64500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>62500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>60100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>55200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>54800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>48700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>46100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>44400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-3600</v>
+        <v>-10100</v>
       </c>
       <c r="E18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-27800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-24500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="3">
         <v>-16600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="3">
         <v>-22500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-11600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-10200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,70 +1548,71 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>500</v>
+      </c>
+      <c r="R20" s="3">
+        <v>700</v>
+      </c>
+      <c r="S20" s="3">
+        <v>600</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>400</v>
+      </c>
+      <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
         <v>300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>400</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
-      </c>
-      <c r="V20" s="3">
-        <v>300</v>
-      </c>
-      <c r="W20" s="3">
-        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>100</v>
@@ -1587,84 +1621,90 @@
         <v>100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E21" s="3">
         <v>31400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="3">
         <v>-16400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="3">
         <v>-17200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-8900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-9600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-8500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,37 +1712,37 @@
         <v>4600</v>
       </c>
       <c r="E22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F22" s="3">
         <v>6200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17300</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>91</v>
+      <c r="L22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1737,129 +1777,135 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-42400</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="3">
         <v>-22000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="3">
         <v>-22500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-10100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-13700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-9300</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" s="3">
         <v>-1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
@@ -1868,25 +1914,28 @@
         <v>100</v>
       </c>
       <c r="U24" s="3">
+        <v>100</v>
+      </c>
+      <c r="V24" s="3">
         <v>-500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
-      </c>
-      <c r="X24" s="3">
-        <v>100</v>
       </c>
       <c r="Y24" s="3">
         <v>100</v>
       </c>
       <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-33100</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="3">
         <v>-22200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" s="3">
         <v>-20700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-11500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-10300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-33100</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" s="3">
         <v>-22200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" s="3">
         <v>-20700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-10300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2403,70 +2470,73 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>600</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>600</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L32" s="3">
-        <v>5400</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>-100</v>
@@ -2475,84 +2545,90 @@
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-33100</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M33" s="3">
         <v>-22200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P33" s="3">
         <v>-20700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-10300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-33100</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M35" s="3">
         <v>-22200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" s="3">
         <v>-20700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-10300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2834,29 +2920,30 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>164900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>227500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>70200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>83000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2872,44 +2959,47 @@
       <c r="N41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P41" s="3">
         <v>28700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>49300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>94300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>111000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>68000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>136700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>35700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>58700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>25700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>28300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>44500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2947,64 +3037,67 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>18800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>41800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>58600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>60400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>48600</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>5700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>8100</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>10000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>23900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>167600</v>
+      </c>
+      <c r="E43" s="3">
         <v>36600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>51600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>144100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>91</v>
       </c>
@@ -3020,44 +3113,47 @@
       <c r="N43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" s="3">
         <v>109200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>26700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>35500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>47500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>93800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>25500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>34300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>35500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>73000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>12800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>18100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3130,29 +3226,32 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E45" s="3">
         <v>65600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>91</v>
       </c>
@@ -3168,65 +3267,68 @@
       <c r="N45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P45" s="3">
         <v>39400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>38900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>11900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>304100</v>
+      </c>
+      <c r="E46" s="3">
         <v>203000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>246800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>312200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>248000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>156800</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>91</v>
       </c>
@@ -3242,44 +3344,47 @@
       <c r="N46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P46" s="3">
         <v>196000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>156800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>212600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>240000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>230500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>180400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>96700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>110100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>107300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>62900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>92900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3352,29 +3457,32 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E48" s="3">
         <v>28100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>30500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>91</v>
       </c>
@@ -3390,65 +3498,68 @@
       <c r="N48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P48" s="3">
         <v>67000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>66400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>23900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>20900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1778800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1790200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1824000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1846700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1879400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1894400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>91</v>
       </c>
@@ -3464,44 +3575,47 @@
       <c r="N49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P49" s="3">
         <v>108300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>64900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>19300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>30000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3648,29 +3765,32 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E52" s="3">
         <v>34800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>34000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>26800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>26900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>26600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>91</v>
       </c>
@@ -3686,44 +3806,47 @@
       <c r="N52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P52" s="3">
         <v>20200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>15000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>14600</v>
       </c>
       <c r="U52" s="3">
         <v>14600</v>
       </c>
       <c r="V52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="W52" s="3">
         <v>2700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3796,29 +3919,32 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2145200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2056100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2133800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2215300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2184800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2109100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>91</v>
       </c>
@@ -3834,44 +3960,47 @@
       <c r="N54" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P54" s="3">
         <v>391400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>306100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>274000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>302200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>293000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>242800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>156600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>135500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>130100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>83900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>111300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3926,29 +4056,30 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E57" s="3">
         <v>11900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>91</v>
       </c>
@@ -3964,44 +4095,47 @@
       <c r="N57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P57" s="3">
         <v>9700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4009,19 +4143,19 @@
         <v>4000</v>
       </c>
       <c r="E58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5600</v>
       </c>
       <c r="H58" s="3">
         <v>5600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>91</v>
+      <c r="I58" s="3">
+        <v>5600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>91</v>
@@ -4038,8 +4172,8 @@
       <c r="N58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4074,29 +4208,32 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>299900</v>
+      </c>
+      <c r="E59" s="3">
         <v>205200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>276000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>301400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>266600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>165600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>91</v>
       </c>
@@ -4112,65 +4249,68 @@
       <c r="N59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P59" s="3">
         <v>175100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>106700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>128400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>151800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>142600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>91200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>114400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>123900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>117200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>66200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>84400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E60" s="3">
         <v>221000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>297100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>325900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>287300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>182400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>91</v>
       </c>
@@ -4186,65 +4326,68 @@
       <c r="N60" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P60" s="3">
         <v>184700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>112800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>132000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>163300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>149600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>97600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>117300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>134100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>122000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>70600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>89800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>488500</v>
+      </c>
+      <c r="E61" s="3">
         <v>489500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>490500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>515000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>771000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>772400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4296,29 +4439,32 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E62" s="3">
         <v>66100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>71800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>85400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>89300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>97200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>91</v>
       </c>
@@ -4334,44 +4480,47 @@
       <c r="N62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P62" s="3">
         <v>50200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12200</v>
-      </c>
-      <c r="X62" s="3">
-        <v>11600</v>
       </c>
       <c r="Y62" s="3">
         <v>11600</v>
       </c>
       <c r="Z62" s="3">
+        <v>11600</v>
+      </c>
+      <c r="AA62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4592,29 +4747,32 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>870700</v>
+      </c>
+      <c r="E66" s="3">
         <v>776600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>859400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>926300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1147600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1052100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>91</v>
       </c>
@@ -4630,44 +4788,47 @@
       <c r="N66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P66" s="3">
         <v>234900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>160300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>145600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>176200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>162900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>110300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>129700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>146300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>134200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>82200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>101400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>110900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4990,29 +5161,32 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-285100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-272200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-266700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-246000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-232700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-211100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>91</v>
       </c>
@@ -5028,44 +5202,47 @@
       <c r="N72" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P72" s="3">
         <v>-304300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-283600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-267400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-259800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-248400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-235800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-224000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-234800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-222400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-209500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-196500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-183500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5286,29 +5469,32 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1274500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1279500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1274400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1289000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1037200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1057000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>91</v>
       </c>
@@ -5324,44 +5510,47 @@
       <c r="N76" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P76" s="3">
         <v>156500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>145800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>128400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>125900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>130100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>132400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-10900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-4100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-33100</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>91</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M81" s="3">
         <v>-22200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P81" s="3">
         <v>-20700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-10300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5615,29 +5813,30 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>34700</v>
+        <v>35200</v>
       </c>
       <c r="E83" s="3">
         <v>34700</v>
       </c>
       <c r="F83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="G83" s="3">
         <v>34500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>91</v>
       </c>
@@ -5653,44 +5852,47 @@
       <c r="N83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P83" s="3">
         <v>5300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>3000</v>
       </c>
       <c r="R83" s="3">
         <v>3000</v>
       </c>
       <c r="S83" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T83" s="3">
         <v>2800</v>
       </c>
       <c r="U83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V83" s="3">
         <v>2100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6059,29 +6273,32 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-65900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>161200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-58700</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>91</v>
       </c>
@@ -6097,44 +6314,47 @@
       <c r="N89" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P89" s="3">
         <v>-14400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-20200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>54700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-22100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-12300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-25100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>43600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-11900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-27700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-14900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6161,29 +6381,30 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1200</v>
       </c>
       <c r="G91" s="3">
         <v>-1200</v>
       </c>
       <c r="H91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>91</v>
       </c>
@@ -6199,44 +6420,47 @@
       <c r="N91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P91" s="3">
         <v>-2700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6383,29 +6610,32 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>45600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>91</v>
       </c>
@@ -6421,44 +6651,47 @@
       <c r="N94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P94" s="3">
         <v>-9900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-51000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>6200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>10500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-25900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6781,29 +7024,32 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-47800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-50100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>91</v>
       </c>
@@ -6819,53 +7065,56 @@
       <c r="N100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P100" s="3">
         <v>3700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>112500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>91</v>
       </c>
@@ -6881,8 +7130,8 @@
       <c r="J101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -6929,29 +7178,32 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-63900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-62600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>157300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-63200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>91</v>
       </c>
@@ -6967,40 +7219,43 @@
       <c r="N102" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P102" s="3">
         <v>-20600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>43100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-68800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>101000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-23000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>33000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-16300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-14400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E8" s="3">
         <v>114600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>113500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>110600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>107200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>93600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>94000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>87500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>81800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>61400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>71400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>69200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>68300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>62900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>58100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>56300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>55200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>50100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>48000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>44800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>43200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>38500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>34500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>31500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E9" s="3">
         <v>42300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>41500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45600</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="3">
         <v>24400</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="3">
         <v>20400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>16100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>23300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>21800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>19000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>9900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>9100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E10" s="3">
         <v>72300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>72600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>68800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>65700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>52600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>48400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="3">
         <v>47000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="3">
         <v>42500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>39200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>39100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>35500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>34000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>21500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>21400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>19500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>24600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>22400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E12" s="3">
         <v>18200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="3">
         <v>19300</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="3">
         <v>20900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>15600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>14800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>14700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>13500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>12600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>11100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>11200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>10100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,49 +1203,52 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E14" s="3">
         <v>4900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>22400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>91</v>
+      <c r="M14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1263,20 +1283,23 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E15" s="3">
         <v>18300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>18000</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>91</v>
       </c>
@@ -1289,8 +1312,8 @@
       <c r="J15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1305,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>600</v>
-      </c>
-      <c r="R15" s="3">
-        <v>300</v>
       </c>
       <c r="S15" s="3">
         <v>300</v>
@@ -1320,11 +1343,11 @@
         <v>300</v>
       </c>
       <c r="U15" s="3">
+        <v>300</v>
+      </c>
+      <c r="V15" s="3">
         <v>400</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E17" s="3">
         <v>124700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>117400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>138400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>112200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>105500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>118500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="3">
         <v>88000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="3">
         <v>85400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>77500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>64500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>67200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>62500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>60100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>55200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>54800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>48700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>46100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>44400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="3">
         <v>-16600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-12100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-10400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-11600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-10200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,73 +1582,74 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="3">
         <v>-5400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
-      </c>
-      <c r="X20" s="3">
-        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>100</v>
@@ -1624,128 +1658,134 @@
         <v>100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E21" s="3">
         <v>25200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>31400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="3">
         <v>-16400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-8400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-9600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-9600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-10100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>4600</v>
+        <v>7200</v>
       </c>
       <c r="E22" s="3">
         <v>4600</v>
       </c>
       <c r="F22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G22" s="3">
         <v>6200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17300</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>91</v>
+      <c r="M22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1780,135 +1820,141 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-42400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="3">
         <v>-22000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-10300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-13700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-9300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2800</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
@@ -1917,25 +1963,28 @@
         <v>100</v>
       </c>
       <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3">
         <v>-500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>100</v>
       </c>
       <c r="Z24" s="3">
         <v>100</v>
       </c>
       <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-33100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" s="3">
         <v>-22200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-16100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-12500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-11500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-33100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="3">
         <v>-22200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-11500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,73 +2540,76 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="3">
         <v>5400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
@@ -2548,87 +2618,93 @@
         <v>-100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="3">
         <v>-22200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-16100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-12500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N35" s="3">
         <v>-22200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-16100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-12500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,32 +3007,33 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>259200</v>
+      </c>
+      <c r="E41" s="3">
         <v>83200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>164900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>227500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>70200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>83000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2962,44 +3049,47 @@
       <c r="O41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q41" s="3">
         <v>28700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>49300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>94300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>111000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>68000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>136700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>35700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>58700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>25700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>28300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>44500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3040,67 +3130,70 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>18800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>41800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>58600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>60400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>48600</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>5700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>8100</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>10000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>23900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E43" s="3">
         <v>167600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>51600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>144100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>29700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>91</v>
       </c>
@@ -3116,44 +3209,47 @@
       <c r="O43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q43" s="3">
         <v>109200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>26700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>35500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>47500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>93800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>25500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>34300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>35500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>73000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>12800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>18100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3229,32 +3325,35 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E45" s="3">
         <v>53200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>65600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>33700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>91</v>
       </c>
@@ -3270,68 +3369,71 @@
       <c r="O45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q45" s="3">
         <v>39400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>38900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>11900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>6400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>376400</v>
+      </c>
+      <c r="E46" s="3">
         <v>304100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>203000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>246800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>312200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>248000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>156800</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>91</v>
       </c>
@@ -3347,44 +3449,47 @@
       <c r="O46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q46" s="3">
         <v>196000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>156800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>212600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>240000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>230500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>180400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>96700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>110100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>107300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>62900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>92900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3460,32 +3565,35 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E48" s="3">
         <v>28000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>30500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>91</v>
       </c>
@@ -3501,68 +3609,71 @@
       <c r="O48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q48" s="3">
         <v>67000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>66400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>23900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>20900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>14700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1744500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1778800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1790200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1824000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1846700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1879400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1894400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>91</v>
       </c>
@@ -3578,44 +3689,47 @@
       <c r="O49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q49" s="3">
         <v>108300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>64900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>19300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>30000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3768,32 +3885,35 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E52" s="3">
         <v>34300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>34800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>34000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>26800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>26900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>26600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>91</v>
       </c>
@@ -3809,44 +3929,47 @@
       <c r="O52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q52" s="3">
         <v>20200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>15900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>15000</v>
-      </c>
-      <c r="U52" s="3">
-        <v>14600</v>
       </c>
       <c r="V52" s="3">
         <v>14600</v>
       </c>
       <c r="W52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="X52" s="3">
         <v>2700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3922,32 +4045,35 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2182900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2145200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2056100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2133800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2215300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2184800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2109100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>91</v>
       </c>
@@ -3963,44 +4089,47 @@
       <c r="O54" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q54" s="3">
         <v>391400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>306100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>274000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>302200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>293000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>242800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>156600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>135500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>130100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>83900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>111300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4057,32 +4187,33 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E57" s="3">
         <v>16100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>91</v>
       </c>
@@ -4098,44 +4229,47 @@
       <c r="O57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q57" s="3">
         <v>9700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4146,19 +4280,19 @@
         <v>4000</v>
       </c>
       <c r="F58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G58" s="3">
         <v>2800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5600</v>
       </c>
       <c r="I58" s="3">
         <v>5600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>91</v>
+      <c r="J58" s="3">
+        <v>5600</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>91</v>
@@ -4175,8 +4309,8 @@
       <c r="O58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4211,32 +4345,35 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>341800</v>
+      </c>
+      <c r="E59" s="3">
         <v>299900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>205200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>276000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>301400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>266600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>165600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>91</v>
       </c>
@@ -4252,68 +4389,71 @@
       <c r="O59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q59" s="3">
         <v>175100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>106700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>128400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>151800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>142600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>91200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>114400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>123900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>117200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>66200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>84400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>365400</v>
+      </c>
+      <c r="E60" s="3">
         <v>320000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>221000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>297100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>325900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>287300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>182400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>91</v>
       </c>
@@ -4329,68 +4469,71 @@
       <c r="O60" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q60" s="3">
         <v>184700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>112800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>132000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>163300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>149600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>97600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>117300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>134100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>122000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>70600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>89800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>487500</v>
+      </c>
+      <c r="E61" s="3">
         <v>488500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>489500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>490500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>515000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>771000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>772400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4442,32 +4585,35 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E62" s="3">
         <v>62200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>66100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>71800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>85400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>89300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>97200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>91</v>
       </c>
@@ -4483,44 +4629,47 @@
       <c r="O62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q62" s="3">
         <v>50200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>47500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12200</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>11600</v>
       </c>
       <c r="Z62" s="3">
         <v>11600</v>
       </c>
       <c r="AA62" s="3">
+        <v>11600</v>
+      </c>
+      <c r="AB62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,32 +4905,35 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>908100</v>
+      </c>
+      <c r="E66" s="3">
         <v>870700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>776600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>859400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>926300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1147600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1052100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>91</v>
       </c>
@@ -4791,44 +4949,47 @@
       <c r="O66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q66" s="3">
         <v>234900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>160300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>145600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>176200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>162900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>110300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>129700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>146300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>134200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>82200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>101400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>110900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5164,32 +5335,35 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-295200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-285100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-272200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-266700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-246000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-232700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-211100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>91</v>
       </c>
@@ -5205,44 +5379,47 @@
       <c r="O72" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-304300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-283600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-267400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-259800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-248400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-235800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-224000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-234800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-222400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-209500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-196500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-183500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5472,32 +5655,35 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1274800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1274500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1279500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1274400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1289000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1037200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1057000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>91</v>
       </c>
@@ -5513,44 +5699,47 @@
       <c r="O76" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q76" s="3">
         <v>156500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>145800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>128400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>125900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>130100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>132400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-10900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>91</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N81" s="3">
         <v>-22200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-16100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-12500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5814,32 +6012,33 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E83" s="3">
         <v>35200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>34700</v>
       </c>
       <c r="F83" s="3">
         <v>34700</v>
       </c>
       <c r="G83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="H83" s="3">
         <v>34500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>91</v>
       </c>
@@ -5855,44 +6054,47 @@
       <c r="O83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q83" s="3">
         <v>5300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>3000</v>
       </c>
       <c r="S83" s="3">
         <v>3000</v>
       </c>
       <c r="T83" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="U83" s="3">
         <v>2800</v>
       </c>
       <c r="V83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="W83" s="3">
         <v>2100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6276,32 +6490,35 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-65900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>161200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-58700</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>91</v>
       </c>
@@ -6317,44 +6534,47 @@
       <c r="O89" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-36200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-20200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>54700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-22100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-12300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-25100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>43600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-27700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-14900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6382,32 +6602,33 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1200</v>
       </c>
       <c r="H91" s="3">
         <v>-1200</v>
       </c>
       <c r="I91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>91</v>
       </c>
@@ -6423,44 +6644,47 @@
       <c r="O91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6613,32 +6840,35 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>45600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>91</v>
       </c>
@@ -6654,44 +6884,47 @@
       <c r="O94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-51000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>6200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>10500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-25900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7027,32 +7270,35 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-47800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-50100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>91</v>
       </c>
@@ -7068,56 +7314,59 @@
       <c r="O100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q100" s="3">
         <v>3700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>112500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>91</v>
       </c>
@@ -7133,8 +7382,8 @@
       <c r="K101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -7181,32 +7430,35 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>175800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-63900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-62600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>157300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-63200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>91</v>
       </c>
@@ -7222,40 +7474,43 @@
       <c r="O102" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-45000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>43100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-68800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>101000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-23000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>33000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-16300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-14400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>124700</v>
+      </c>
+      <c r="E8" s="3">
         <v>122400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>114600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>113500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>110600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>107200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>93600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>94000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>87500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>81800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>61400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>69200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>68300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>62900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>58100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>56300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>55200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>50100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>48000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>44800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>43200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>38500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>34500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>31500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E9" s="3">
         <v>43900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>42300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>41800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>45600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" s="3">
         <v>24400</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="3">
         <v>20400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>17100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>23300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>21800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>19000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>9900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>9100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E10" s="3">
         <v>78500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>72300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>72600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>68800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>65700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>52600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>48400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="3">
         <v>47000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="3">
         <v>42500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>39900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>39200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>39100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>35500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>34000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>21500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>21400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>19500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>24600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>22400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E12" s="3">
         <v>18600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="3">
         <v>19300</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R12" s="3">
         <v>20900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>18900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>15600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>14800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>14700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>13500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>12600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>11100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>11200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>10100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,52 +1222,55 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>8100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>22400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>91</v>
+      <c r="N14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1286,23 +1305,26 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E15" s="3">
         <v>18400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>18300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>18000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>91</v>
       </c>
@@ -1315,8 +1337,8 @@
       <c r="K15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1331,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>1300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>600</v>
-      </c>
-      <c r="S15" s="3">
-        <v>300</v>
       </c>
       <c r="T15" s="3">
         <v>300</v>
@@ -1346,11 +1368,11 @@
         <v>300</v>
       </c>
       <c r="V15" s="3">
+        <v>300</v>
+      </c>
+      <c r="W15" s="3">
         <v>400</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E17" s="3">
         <v>128700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>124700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>117400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>138400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>112200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>105500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>118500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="3">
         <v>88000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R17" s="3">
         <v>85400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>77500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>64500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>67200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>62500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>60100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>55200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>54800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>48700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>46100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>44400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-24500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="3">
         <v>-16600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R18" s="3">
         <v>-22500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-19400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-12400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-12100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-10400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-10200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,76 +1615,77 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20" s="3">
         <v>-5400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>100</v>
       </c>
       <c r="Z20" s="3">
         <v>100</v>
@@ -1661,134 +1694,140 @@
         <v>100</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E21" s="3">
         <v>29400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>31400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" s="3">
         <v>-16400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R21" s="3">
         <v>-17200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-15400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-8400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-9600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-8100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-10100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-11600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E22" s="3">
         <v>7200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4600</v>
       </c>
       <c r="F22" s="3">
         <v>4600</v>
       </c>
       <c r="G22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H22" s="3">
         <v>6200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>91</v>
+      <c r="N22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1823,141 +1862,147 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-42400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" s="3">
         <v>-22000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R23" s="3">
         <v>-22500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-18900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-10300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-10100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-13700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-9300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R24" s="3">
         <v>-1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2800</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>100</v>
@@ -1966,25 +2011,28 @@
         <v>100</v>
       </c>
       <c r="W24" s="3">
+        <v>100</v>
+      </c>
+      <c r="X24" s="3">
         <v>-500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>100</v>
       </c>
       <c r="AA24" s="3">
         <v>100</v>
       </c>
       <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-33100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" s="3">
         <v>-22200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R26" s="3">
         <v>-20700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-16100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-12500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-11900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-33100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" s="3">
         <v>-22200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R27" s="3">
         <v>-20700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-16100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2543,76 +2609,79 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32" s="3">
         <v>5400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-100</v>
       </c>
       <c r="Z32" s="3">
         <v>-100</v>
@@ -2621,90 +2690,96 @@
         <v>-100</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-33100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O33" s="3">
         <v>-22200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R33" s="3">
         <v>-20700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-16100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-33100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O35" s="3">
         <v>-22200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R35" s="3">
         <v>-20700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-16100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3008,35 +3093,36 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E41" s="3">
         <v>259200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>83200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>164900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>227500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>70200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>83000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>91</v>
       </c>
@@ -3052,44 +3138,47 @@
       <c r="P41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R41" s="3">
         <v>28700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>49300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>94300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>111000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>68000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>136700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>35700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>58700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>25700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>28300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>44500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3133,70 +3222,73 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>18800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>41800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>58600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>60400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>48600</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>5700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>8100</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
-      </c>
       <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>10000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>23900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E43" s="3">
         <v>72300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>167600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>51600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>144100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>29700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>91</v>
       </c>
@@ -3212,44 +3304,47 @@
       <c r="P43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R43" s="3">
         <v>109200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>26700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>35500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>47500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>93800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>25500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>34300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>35500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>73000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>12800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>18100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3328,35 +3423,38 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E45" s="3">
         <v>44900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>53200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>65600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>33700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>91</v>
       </c>
@@ -3372,71 +3470,74 @@
       <c r="P45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R45" s="3">
         <v>39400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>38900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>24200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>20200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>18100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>8600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>11900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>6400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E46" s="3">
         <v>376400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>304100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>203000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>246800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>312200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>248000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>156800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>91</v>
       </c>
@@ -3452,44 +3553,47 @@
       <c r="P46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R46" s="3">
         <v>196000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>156800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>212600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>240000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>230500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>180400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>96700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>110100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>107300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>62900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>92900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3568,35 +3672,38 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E48" s="3">
         <v>27500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>91</v>
       </c>
@@ -3612,71 +3719,74 @@
       <c r="P48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R48" s="3">
         <v>67000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>66400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>23900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>20900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>14700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1809100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1744500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1778800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1790200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1824000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1846700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1879400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1894400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>91</v>
       </c>
@@ -3692,44 +3802,47 @@
       <c r="P49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R49" s="3">
         <v>108300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>64900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>19300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>30000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3888,35 +4004,38 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E52" s="3">
         <v>34600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>34300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>34800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>34000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>26800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>26900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>26600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>91</v>
       </c>
@@ -3932,44 +4051,47 @@
       <c r="P52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R52" s="3">
         <v>20200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>15400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>15900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>15000</v>
-      </c>
-      <c r="V52" s="3">
-        <v>14600</v>
       </c>
       <c r="W52" s="3">
         <v>14600</v>
       </c>
       <c r="X52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4048,35 +4170,38 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2153500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2182900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2145200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2056100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2133800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2215300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2184800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2109100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>91</v>
       </c>
@@ -4092,44 +4217,47 @@
       <c r="P54" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R54" s="3">
         <v>391400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>306100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>274000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>302200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>293000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>242800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>156600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>135500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>130100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>83900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>111300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4188,35 +4317,36 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E57" s="3">
         <v>19700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>91</v>
       </c>
@@ -4232,44 +4362,47 @@
       <c r="P57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R57" s="3">
         <v>9700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>5400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4283,19 +4416,19 @@
         <v>4000</v>
       </c>
       <c r="G58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5600</v>
       </c>
       <c r="J58" s="3">
         <v>5600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>91</v>
+      <c r="K58" s="3">
+        <v>5600</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>91</v>
@@ -4312,8 +4445,8 @@
       <c r="P58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4348,35 +4481,38 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>311300</v>
+      </c>
+      <c r="E59" s="3">
         <v>341800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>299900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>205200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>276000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>301400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>266600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>165600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>91</v>
       </c>
@@ -4392,71 +4528,74 @@
       <c r="P59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R59" s="3">
         <v>175100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>106700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>128400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>151800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>142600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>91200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>114400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>123900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>117200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>66200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>84400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>334100</v>
+      </c>
+      <c r="E60" s="3">
         <v>365400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>320000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>221000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>297100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>325900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>287300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>182400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>91</v>
       </c>
@@ -4472,71 +4611,74 @@
       <c r="P60" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R60" s="3">
         <v>184700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>112800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>132000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>163300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>149600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>97600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>117300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>134100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>122000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>70600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>89800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>486500</v>
+      </c>
+      <c r="E61" s="3">
         <v>487500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>488500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>489500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>490500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>515000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>771000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>772400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4588,35 +4730,38 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E62" s="3">
         <v>55200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>62200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>66100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>71800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>85400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>89300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>97200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>91</v>
       </c>
@@ -4632,44 +4777,47 @@
       <c r="P62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R62" s="3">
         <v>50200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>47500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12200</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>11600</v>
       </c>
       <c r="AA62" s="3">
         <v>11600</v>
       </c>
       <c r="AB62" s="3">
+        <v>11600</v>
+      </c>
+      <c r="AC62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4908,35 +5062,38 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>877400</v>
+      </c>
+      <c r="E66" s="3">
         <v>908100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>870700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>776600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>859400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>926300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1147600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1052100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>91</v>
       </c>
@@ -4952,44 +5109,47 @@
       <c r="P66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R66" s="3">
         <v>234900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>160300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>145600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>176200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>162900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>110300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>129700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>146300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>134200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>82200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>101400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>110900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5338,35 +5508,38 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-300900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-295200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-285100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-272200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-266700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-246000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-232700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-211100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>91</v>
       </c>
@@ -5382,44 +5555,47 @@
       <c r="P72" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R72" s="3">
         <v>-304300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-283600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-267400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-259800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-248400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-235800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-224000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-234800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-222400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-209500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-196500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-183500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5658,35 +5840,38 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1276100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1274800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1274500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1279500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1274400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1289000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1037200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1057000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>91</v>
       </c>
@@ -5702,44 +5887,47 @@
       <c r="P76" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R76" s="3">
         <v>156500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>145800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>128400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>125900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>130100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>132400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-10900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-33100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O81" s="3">
         <v>-22200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R81" s="3">
         <v>-20700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-16100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6013,35 +6210,36 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E83" s="3">
         <v>35300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>34700</v>
       </c>
       <c r="G83" s="3">
         <v>34700</v>
       </c>
       <c r="H83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="I83" s="3">
         <v>34500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>91</v>
       </c>
@@ -6057,44 +6255,47 @@
       <c r="P83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R83" s="3">
         <v>5300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>3000</v>
       </c>
       <c r="T83" s="3">
         <v>3000</v>
       </c>
       <c r="U83" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="V83" s="3">
         <v>2800</v>
       </c>
       <c r="W83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X83" s="3">
         <v>2100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6493,35 +6706,38 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E89" s="3">
         <v>179000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-65900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>161200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-58700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>91</v>
       </c>
@@ -6537,44 +6753,47 @@
       <c r="P89" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R89" s="3">
         <v>-14400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-36200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-20200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>54700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-22100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-12300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-25100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>43600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-27700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-14900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6603,35 +6822,36 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1200</v>
       </c>
       <c r="I91" s="3">
         <v>-1200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>91</v>
       </c>
@@ -6647,44 +6867,47 @@
       <c r="P91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R91" s="3">
         <v>-2700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6843,35 +7069,38 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-90900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>45600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>91</v>
       </c>
@@ -6887,44 +7116,47 @@
       <c r="P94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R94" s="3">
         <v>-9900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-51000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>6200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>10500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-25900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7273,35 +7515,38 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-47800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-50100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>91</v>
       </c>
@@ -7317,59 +7562,62 @@
       <c r="P100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R100" s="3">
         <v>3700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>112500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>91</v>
       </c>
@@ -7385,8 +7633,8 @@
       <c r="L101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -7433,35 +7681,38 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E102" s="3">
         <v>175800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-63900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-62600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>157300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-63200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>91</v>
       </c>
@@ -7477,40 +7728,43 @@
       <c r="P102" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R102" s="3">
         <v>-20600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-45000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-16700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>43100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-68800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>101000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-23000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>33000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-16300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-14400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E8" s="3">
         <v>124700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>122400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>114600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>113500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>110600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>107200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>93600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>94000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>87500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>81800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>61400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>71400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>69200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>68300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>62900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>58100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>56300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>55200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>50100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>48000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>44800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>43200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>38500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>34500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>31500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E9" s="3">
         <v>44800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>42300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="3">
         <v>24400</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S9" s="3">
         <v>20400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>18200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>17100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>23300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>21800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>19000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>9900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>9100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E10" s="3">
         <v>79900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>78500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>72300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>72600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>68800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>65700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>48400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="3">
         <v>47000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" s="3">
         <v>42500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>39900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>39200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>39100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>35500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>34000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>21500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>21400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>19500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>24600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>22400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E12" s="3">
         <v>19500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="3">
         <v>19300</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S12" s="3">
         <v>20900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>18900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>14300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>15600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>14800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>14700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>13500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>12600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>11100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>11200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>10100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,55 +1242,58 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>91</v>
+      <c r="O14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1308,26 +1328,29 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E15" s="3">
         <v>18600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>18400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>18300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>18000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>91</v>
       </c>
@@ -1340,8 +1363,8 @@
       <c r="L15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1356,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>1300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>600</v>
-      </c>
-      <c r="T15" s="3">
-        <v>300</v>
       </c>
       <c r="U15" s="3">
         <v>300</v>
@@ -1371,11 +1394,11 @@
         <v>300</v>
       </c>
       <c r="W15" s="3">
+        <v>300</v>
+      </c>
+      <c r="X15" s="3">
         <v>400</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E17" s="3">
         <v>124000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>128700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>124700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>117400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>138400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>112200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>105500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>118500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="3">
         <v>88000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S17" s="3">
         <v>85400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>77500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>64500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>62500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>60100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>55200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>54800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>48700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>46100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>44400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-27800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-24500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="3">
         <v>-16600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S18" s="3">
         <v>-22500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-19400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-12000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-12400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-12100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-10200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-11600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-12900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,79 +1649,80 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="3">
         <v>-5400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>100</v>
       </c>
       <c r="AA20" s="3">
         <v>100</v>
@@ -1697,140 +1731,146 @@
         <v>100</v>
       </c>
       <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E21" s="3">
         <v>37400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>31400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="3">
         <v>-16400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S21" s="3">
         <v>-17200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-15400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-9600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-8900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-10100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-11600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E22" s="3">
         <v>8300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4600</v>
       </c>
       <c r="G22" s="3">
         <v>4600</v>
       </c>
       <c r="H22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I22" s="3">
         <v>6200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>91</v>
+      <c r="O22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1865,147 +1905,153 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-34400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-42400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="3">
         <v>-22000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S23" s="3">
         <v>-22500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-12400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-10100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-11500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-12900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-13700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-9300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S24" s="3">
         <v>-1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2800</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>100</v>
@@ -2014,25 +2060,28 @@
         <v>100</v>
       </c>
       <c r="X24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>200</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>100</v>
       </c>
       <c r="AB24" s="3">
         <v>100</v>
       </c>
       <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-33100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" s="3">
         <v>-22200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S26" s="3">
         <v>-20700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-16100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-12500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-11900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-11600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-12900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-33100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" s="3">
         <v>-22200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S27" s="3">
         <v>-20700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-12500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-11900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-11600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-12900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2612,79 +2679,82 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" s="3">
         <v>5400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-100</v>
       </c>
       <c r="AA32" s="3">
         <v>-100</v>
@@ -2693,93 +2763,99 @@
         <v>-100</v>
       </c>
       <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-33100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P33" s="3">
         <v>-22200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S33" s="3">
         <v>-20700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-16100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-12500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-11600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-12900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-33100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" s="3">
         <v>-22200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S35" s="3">
         <v>-20700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-16100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-12500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-11600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-12900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3094,38 +3180,39 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E41" s="3">
         <v>186000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>259200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>83200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>164900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>227500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>70200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>83000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>91</v>
       </c>
@@ -3141,44 +3228,47 @@
       <c r="Q41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S41" s="3">
         <v>28700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>49300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>94300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>111000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>68000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>136700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>35700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>58700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>25700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>28300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>44500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3225,73 +3315,76 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>18800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>41800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>58600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>60400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>48600</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>5700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>8100</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
-      </c>
       <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
         <v>10000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>23900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E43" s="3">
         <v>71400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>72300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>167600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>51600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>144100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>29700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>91</v>
       </c>
@@ -3307,44 +3400,47 @@
       <c r="Q43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S43" s="3">
         <v>109200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>26700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>35500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>47500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>93800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>25500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>34300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>35500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>73000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>12800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>18100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3426,38 +3522,41 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E45" s="3">
         <v>27700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>53200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>65600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>33700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>91</v>
       </c>
@@ -3473,74 +3572,77 @@
       <c r="Q45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S45" s="3">
         <v>39400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>38900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>24200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>20200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>18100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>8600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>11900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>6400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E46" s="3">
         <v>285000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>376400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>304100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>203000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>246800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>312200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>248000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>156800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>91</v>
       </c>
@@ -3556,44 +3658,47 @@
       <c r="Q46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S46" s="3">
         <v>196000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>156800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>212600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>240000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>230500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>180400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>96700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>110100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>107300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>62900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>92900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3675,38 +3780,41 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E48" s="3">
         <v>26000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>30500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>91</v>
       </c>
@@ -3722,74 +3830,77 @@
       <c r="Q48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S48" s="3">
         <v>67000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>66400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>23900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>20900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>18900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>14700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1773300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1809100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1744500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1778800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1790200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1824000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1846700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1879400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1894400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>91</v>
       </c>
@@ -3805,44 +3916,47 @@
       <c r="Q49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S49" s="3">
         <v>108300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>64900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>19300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>20600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>30000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4007,38 +4124,41 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E52" s="3">
         <v>33400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>34600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>34300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>34800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>34000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>26800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>26900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>91</v>
       </c>
@@ -4054,44 +4174,47 @@
       <c r="Q52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S52" s="3">
         <v>20200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>15400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>15900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>15000</v>
-      </c>
-      <c r="W52" s="3">
-        <v>14600</v>
       </c>
       <c r="X52" s="3">
         <v>14600</v>
       </c>
       <c r="Y52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="Z52" s="3">
         <v>2700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4173,38 +4296,41 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2065900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2153500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2182900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2145200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2056100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2133800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2215300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2184800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2109100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>91</v>
       </c>
@@ -4220,44 +4346,47 @@
       <c r="Q54" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S54" s="3">
         <v>391400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>306100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>274000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>302200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>293000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>242800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>156600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>135500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>130100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>83900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>111300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4318,38 +4448,39 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E57" s="3">
         <v>18800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>91</v>
       </c>
@@ -4365,44 +4496,47 @@
       <c r="Q57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S57" s="3">
         <v>9700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>5400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4419,19 +4553,19 @@
         <v>4000</v>
       </c>
       <c r="H58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I58" s="3">
         <v>2800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>5600</v>
       </c>
       <c r="K58" s="3">
         <v>5600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>91</v>
+      <c r="L58" s="3">
+        <v>5600</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>91</v>
@@ -4448,8 +4582,8 @@
       <c r="Q58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4484,38 +4618,41 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E59" s="3">
         <v>311300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>341800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>299900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>205200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>276000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>301400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>266600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>165600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>91</v>
       </c>
@@ -4531,74 +4668,77 @@
       <c r="Q59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S59" s="3">
         <v>175100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>106700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>128400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>151800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>142600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>91200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>114400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>123900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>117200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>66200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>84400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>254300</v>
+      </c>
+      <c r="E60" s="3">
         <v>334100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>365400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>320000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>221000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>297100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>325900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>287300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>182400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>91</v>
       </c>
@@ -4614,74 +4754,77 @@
       <c r="Q60" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S60" s="3">
         <v>184700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>112800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>132000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>163300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>149600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>97600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>117300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>134100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>122000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>70600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>89800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>485500</v>
+      </c>
+      <c r="E61" s="3">
         <v>486500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>487500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>488500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>489500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>490500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>515000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>771000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>772400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4733,38 +4876,41 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E62" s="3">
         <v>56800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>62200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>66100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>71800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>85400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>89300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>97200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>91</v>
       </c>
@@ -4780,44 +4926,47 @@
       <c r="Q62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S62" s="3">
         <v>50200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>47500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>12200</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>11600</v>
       </c>
       <c r="AB62" s="3">
         <v>11600</v>
       </c>
       <c r="AC62" s="3">
+        <v>11600</v>
+      </c>
+      <c r="AD62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5065,38 +5220,41 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>789900</v>
+      </c>
+      <c r="E66" s="3">
         <v>877400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>908100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>870700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>776600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>859400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>926300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1147600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1052100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>91</v>
       </c>
@@ -5112,44 +5270,47 @@
       <c r="Q66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S66" s="3">
         <v>234900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>160300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>145600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>176200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>162900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>110300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>129700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>146300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>134200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>82200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>101400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>110900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5511,38 +5682,41 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-312800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-300900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-295200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-285100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-272200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-266700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-246000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-232700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-211100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>91</v>
       </c>
@@ -5558,44 +5732,47 @@
       <c r="Q72" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S72" s="3">
         <v>-304300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-283600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-267400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-259800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-248400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-235800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-224000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-234800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-222400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-209500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-196500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-183500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5843,38 +6026,41 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1276000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1276100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1274800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1274500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1279500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1274400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1289000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1037200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1057000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>91</v>
       </c>
@@ -5890,44 +6076,47 @@
       <c r="Q76" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S76" s="3">
         <v>156500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>145800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>128400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>125900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>130100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>132400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>26900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-10900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-33100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P81" s="3">
         <v>-22200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S81" s="3">
         <v>-20700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-16100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-12500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-11600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-12900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6211,38 +6409,39 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E83" s="3">
         <v>35900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>34700</v>
       </c>
       <c r="H83" s="3">
         <v>34700</v>
       </c>
       <c r="I83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="J83" s="3">
         <v>34500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>91</v>
       </c>
@@ -6258,44 +6457,47 @@
       <c r="Q83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S83" s="3">
         <v>5300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>3000</v>
       </c>
       <c r="U83" s="3">
         <v>3000</v>
       </c>
       <c r="V83" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="W83" s="3">
         <v>2800</v>
       </c>
       <c r="X83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Y83" s="3">
         <v>2100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6709,38 +6923,41 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="E89" s="3">
         <v>18800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>179000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-65900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>161200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-58700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>91</v>
       </c>
@@ -6756,44 +6973,47 @@
       <c r="Q89" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S89" s="3">
         <v>-14400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-36200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-20200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>54700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-22100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-12300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-25100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>43600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-11900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-27700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-14900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -6832,29 +7053,29 @@
         <v>-1300</v>
       </c>
       <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1200</v>
       </c>
       <c r="J91" s="3">
         <v>-1200</v>
       </c>
       <c r="K91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>91</v>
       </c>
@@ -6870,44 +7091,47 @@
       <c r="Q91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S91" s="3">
         <v>-2700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7072,38 +7299,41 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-90900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>45600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>91</v>
       </c>
@@ -7119,44 +7349,47 @@
       <c r="Q94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S94" s="3">
         <v>-9900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-51000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>6200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>10500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-25900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7518,38 +7761,41 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-47800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-50100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>91</v>
       </c>
@@ -7565,62 +7811,65 @@
       <c r="Q100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S100" s="3">
         <v>3700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>112500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>91</v>
       </c>
@@ -7636,8 +7885,8 @@
       <c r="M101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -7684,38 +7933,41 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-73200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>175800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-63900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-62600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>157300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-63200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>91</v>
       </c>
@@ -7731,40 +7983,43 @@
       <c r="Q102" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S102" s="3">
         <v>-20600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-45000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-16700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>43100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-68800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>101000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-23000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>33000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-16300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-14400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E8" s="3">
         <v>128800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>124700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>122400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>114600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>113500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>110600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>107200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>93600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>94000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>87500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>81800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>61400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>71400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>69200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>68300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>62900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>58100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>56300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>55200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>50100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>48000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>44800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>43200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>38500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>34500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>31500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E9" s="3">
         <v>45300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>44800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>42300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>40900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>45600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="3">
         <v>24400</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" s="3">
         <v>20400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>18200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>17100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>16100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>23300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>21800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>19000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>9900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>9100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E10" s="3">
         <v>83500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>79900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>78500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>72300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>72600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>68800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>65700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>48400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="3">
         <v>47000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10" s="3">
         <v>42500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>39900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>39200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>39100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>35500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>34000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>21500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>21400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>19500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>24600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>22400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1082,85 +1096,88 @@
         <v>20100</v>
       </c>
       <c r="E12" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F12" s="3">
         <v>19500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="3">
         <v>19300</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T12" s="3">
         <v>20900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>18900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>14300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>15600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>14800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>14700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>13500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>12600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>11100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>11200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>10100</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,58 +1262,61 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="3">
         <v>7600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>22400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>91</v>
+      <c r="P14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1331,29 +1351,32 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E15" s="3">
         <v>19700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>18600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>18400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>18300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>18000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>91</v>
       </c>
@@ -1366,8 +1389,8 @@
       <c r="M15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1382,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>1300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>600</v>
-      </c>
-      <c r="U15" s="3">
-        <v>300</v>
       </c>
       <c r="V15" s="3">
         <v>300</v>
@@ -1397,11 +1420,11 @@
         <v>300</v>
       </c>
       <c r="X15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y15" s="3">
         <v>400</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
       <c r="Z15" s="3">
         <v>0</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>133500</v>
+      </c>
+      <c r="E17" s="3">
         <v>135000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>124000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>128700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>124700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>117400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>138400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>112200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>105500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>118500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="3">
         <v>88000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T17" s="3">
         <v>85400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>77500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>64500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>67200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>62500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>60100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>55200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>54800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>48700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>46100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>44400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-24500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T18" s="3">
         <v>-22500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-19400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-12000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-12400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-12100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-10200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-11600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-12900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,82 +1683,83 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>100</v>
       </c>
       <c r="AB20" s="3">
         <v>100</v>
@@ -1734,146 +1768,152 @@
         <v>100</v>
       </c>
       <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E21" s="3">
         <v>32500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>37400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>25200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>31400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T21" s="3">
         <v>-17200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-15400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-9600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-8100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-8500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-10100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-11600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E22" s="3">
         <v>9500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4600</v>
       </c>
       <c r="H22" s="3">
         <v>4600</v>
       </c>
       <c r="I22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J22" s="3">
         <v>6200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17300</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>91</v>
+      <c r="P22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1908,153 +1948,159 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-42400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T23" s="3">
         <v>-22500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-12400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-11300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-10100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-11500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-12900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-13700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-9300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T24" s="3">
         <v>-1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2800</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>100</v>
@@ -2063,25 +2109,28 @@
         <v>100</v>
       </c>
       <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>200</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>100</v>
       </c>
       <c r="AC24" s="3">
         <v>100</v>
       </c>
       <c r="AD24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-33100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T26" s="3">
         <v>-20700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-16100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-11500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-12500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-11600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-12900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-33100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T27" s="3">
         <v>-20700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-16100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-12500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-11600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-12900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2682,82 +2749,85 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q32" s="3">
         <v>5400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-100</v>
       </c>
       <c r="AB32" s="3">
         <v>-100</v>
@@ -2766,96 +2836,102 @@
         <v>-100</v>
       </c>
       <c r="AD32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-33100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T33" s="3">
         <v>-20700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-16100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-12500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-11600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-12900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-33100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T35" s="3">
         <v>-20700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-16100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-12500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-11600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-12900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3181,41 +3267,42 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E41" s="3">
         <v>104800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>186000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>259200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>83200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>164900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>227500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>83000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>91</v>
       </c>
@@ -3231,44 +3318,47 @@
       <c r="R41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T41" s="3">
         <v>28700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>49300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>94300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>111000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>68000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>136700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>35700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>58700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>25700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>28300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>44500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3318,76 +3408,79 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>18800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>41800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>58600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>60400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>48600</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>5700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>8100</v>
       </c>
-      <c r="AA42" s="3">
-        <v>0</v>
-      </c>
       <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
         <v>10000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>23900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>208400</v>
+      </c>
+      <c r="E43" s="3">
         <v>63500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>71400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>72300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>167600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>51600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>144100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>91</v>
       </c>
@@ -3403,44 +3496,47 @@
       <c r="R43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T43" s="3">
         <v>109200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>26700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>35500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>47500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>93800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>25500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>34300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>35500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>73000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>12800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>18100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3525,41 +3621,44 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E45" s="3">
         <v>61700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>53200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>65600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>91</v>
       </c>
@@ -3575,77 +3674,80 @@
       <c r="R45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T45" s="3">
         <v>39400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>38900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>24200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>20200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>18100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>21000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>7900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>8600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>11900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>6400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>384200</v>
+      </c>
+      <c r="E46" s="3">
         <v>230000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>285000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>376400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>304100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>203000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>246800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>312200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>248000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>156800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>91</v>
       </c>
@@ -3661,44 +3763,47 @@
       <c r="R46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T46" s="3">
         <v>196000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>156800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>212600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>240000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>230500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>180400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>96700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>110100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>107300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>62900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>92900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3783,41 +3888,44 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E48" s="3">
         <v>24800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>91</v>
       </c>
@@ -3833,77 +3941,80 @@
       <c r="R48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T48" s="3">
         <v>67000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>66400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>27100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>23900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>20900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>18900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>16900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>14700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1737600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1773300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1809100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1744500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1778800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1790200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1824000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1846700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1879400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1894400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>91</v>
       </c>
@@ -3919,44 +4030,47 @@
       <c r="R49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T49" s="3">
         <v>108300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>64900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>18600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>19300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>20000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>20600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>30000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4127,41 +4244,44 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E52" s="3">
         <v>37800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>33400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>34600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>34300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>34800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>34000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>26800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>91</v>
       </c>
@@ -4177,44 +4297,47 @@
       <c r="R52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T52" s="3">
         <v>20200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>15400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>15900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>15000</v>
-      </c>
-      <c r="X52" s="3">
-        <v>14600</v>
       </c>
       <c r="Y52" s="3">
         <v>14600</v>
       </c>
       <c r="Z52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="AA52" s="3">
         <v>2700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4299,41 +4422,44 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2181400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2065900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2153500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2182900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2145200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2056100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2133800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2215300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2184800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2109100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>91</v>
       </c>
@@ -4349,44 +4475,47 @@
       <c r="R54" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T54" s="3">
         <v>391400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>306100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>274000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>302200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>293000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>242800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>156600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>135500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>130100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>83900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>111300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4449,41 +4579,42 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E57" s="3">
         <v>13800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>91</v>
       </c>
@@ -4499,44 +4630,47 @@
       <c r="R57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T57" s="3">
         <v>9700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>5400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4556,19 +4690,19 @@
         <v>4000</v>
       </c>
       <c r="I58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>5600</v>
       </c>
       <c r="L58" s="3">
         <v>5600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>91</v>
+      <c r="M58" s="3">
+        <v>5600</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>91</v>
@@ -4585,8 +4719,8 @@
       <c r="R58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4621,41 +4755,44 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>356600</v>
+      </c>
+      <c r="E59" s="3">
         <v>236500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>311300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>341800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>299900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>205200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>276000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>301400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>266600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>165600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>91</v>
       </c>
@@ -4671,77 +4808,80 @@
       <c r="R59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T59" s="3">
         <v>175100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>106700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>128400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>151800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>142600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>91200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>114400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>123900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>117200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>66200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>84400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>374100</v>
+      </c>
+      <c r="E60" s="3">
         <v>254300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>334100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>365400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>320000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>221000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>297100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>325900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>287300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>182400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>91</v>
       </c>
@@ -4757,77 +4897,80 @@
       <c r="R60" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T60" s="3">
         <v>184700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>112800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>132000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>163300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>149600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>97600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>117300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>134100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>122000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>70600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>89800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>484400</v>
+      </c>
+      <c r="E61" s="3">
         <v>485500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>486500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>487500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>488500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>489500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>490500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>515000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>771000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>772400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4879,41 +5022,44 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E62" s="3">
         <v>50100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>56800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>62200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>66100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>71800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>85400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>89300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>97200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>91</v>
       </c>
@@ -4929,44 +5075,47 @@
       <c r="R62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T62" s="3">
         <v>50200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>47500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>12300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>12200</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>11600</v>
       </c>
       <c r="AC62" s="3">
         <v>11600</v>
       </c>
       <c r="AD62" s="3">
+        <v>11600</v>
+      </c>
+      <c r="AE62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5223,41 +5378,44 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>906300</v>
+      </c>
+      <c r="E66" s="3">
         <v>789900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>877400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>908100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>870700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>776600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>859400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>926300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1147600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1052100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>91</v>
       </c>
@@ -5273,44 +5431,47 @@
       <c r="R66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T66" s="3">
         <v>234900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>160300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>145600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>176200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>162900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>110300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>129700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>146300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>134200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>82200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>101400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>110900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5685,41 +5856,44 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-323700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-312800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-300900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-295200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-285100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-272200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-266700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-246000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-232700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-211100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>91</v>
       </c>
@@ -5735,44 +5909,47 @@
       <c r="R72" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T72" s="3">
         <v>-304300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-283600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-267400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-259800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-248400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-235800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-224000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-234800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-222400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-209500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-196500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-183500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6029,41 +6212,44 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1275100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1276000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1276100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1274800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1274500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1279500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1274400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1289000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1037200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1057000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>91</v>
       </c>
@@ -6079,44 +6265,47 @@
       <c r="R76" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T76" s="3">
         <v>156500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>145800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>128400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>125900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>130100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>132400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>26900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-10900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-33100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>91</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T81" s="3">
         <v>-20700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-16100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-12500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-11600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-12900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6410,41 +6608,42 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E83" s="3">
         <v>37000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>34700</v>
       </c>
       <c r="I83" s="3">
         <v>34700</v>
       </c>
       <c r="J83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K83" s="3">
         <v>34500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>91</v>
       </c>
@@ -6460,44 +6659,47 @@
       <c r="R83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T83" s="3">
         <v>5300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3500</v>
-      </c>
-      <c r="U83" s="3">
-        <v>3000</v>
       </c>
       <c r="V83" s="3">
         <v>3000</v>
       </c>
       <c r="W83" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="X83" s="3">
         <v>2800</v>
       </c>
       <c r="Y83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Z83" s="3">
         <v>2100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6926,41 +7140,44 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-80900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>179000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-65900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>161200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-58700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>91</v>
       </c>
@@ -6976,44 +7193,47 @@
       <c r="R89" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T89" s="3">
         <v>-14400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-36200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-20200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>54700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-22100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-12300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-25100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>43600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-11900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-27700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-14900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7044,41 +7264,42 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="E91" s="3">
         <v>-1300</v>
       </c>
       <c r="F91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1200</v>
       </c>
       <c r="K91" s="3">
         <v>-1200</v>
       </c>
       <c r="L91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>91</v>
       </c>
@@ -7094,44 +7315,47 @@
       <c r="R91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T91" s="3">
         <v>-2700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7302,41 +7529,44 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-90900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>45600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>91</v>
       </c>
@@ -7352,44 +7582,47 @@
       <c r="R94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T94" s="3">
         <v>-9900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-13100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-51000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>6200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>10500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-25900</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7764,41 +8007,44 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-47800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-50100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>91</v>
       </c>
@@ -7814,65 +8060,68 @@
       <c r="R100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T100" s="3">
         <v>3700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>112500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>2500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>91</v>
       </c>
@@ -7888,8 +8137,8 @@
       <c r="N101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -7936,41 +8185,44 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-81200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-73200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>175800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-63900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-62600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>157300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-63200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>91</v>
       </c>
@@ -7986,40 +8238,43 @@
       <c r="R102" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T102" s="3">
         <v>-20600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-45000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-16700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>43100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-68800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>101000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-23000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>33000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-16300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-14400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E8" s="3">
         <v>131100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>128800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>124700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>122400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>114600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>113500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>110600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>107200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>93600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>94000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>87500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>81800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>61400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>69200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>68300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>62900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>58100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>56300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>55200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>50100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>48000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>44800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>43200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>38500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>34500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>31500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E9" s="3">
         <v>44300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>44800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>43900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>42300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="3">
         <v>24400</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" s="3">
         <v>20400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>18200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>17100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>16100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>14000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>23300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>21800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>19000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>9900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>9100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E10" s="3">
         <v>86800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>83500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>79900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>78500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>72300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>72600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>68800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>65700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>48400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="3">
         <v>47000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" s="3">
         <v>42500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>39900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>39200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>39100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>35500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>34000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>21500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>21400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>19500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>24600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>22400</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>20100</v>
+        <v>18900</v>
       </c>
       <c r="E12" s="3">
         <v>20100</v>
       </c>
       <c r="F12" s="3">
+        <v>20100</v>
+      </c>
+      <c r="G12" s="3">
         <v>19500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R12" s="3">
         <v>19300</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U12" s="3">
         <v>20900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>18900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>14300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>15600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>14800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>14700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>13500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>12600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>11100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>11200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>10100</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,61 +1282,64 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>22400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>91</v>
+      <c r="Q14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1363,23 +1386,23 @@
         <v>19500</v>
       </c>
       <c r="E15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F15" s="3">
         <v>19700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>18600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>18400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>18300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>18000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>91</v>
       </c>
@@ -1392,8 +1415,8 @@
       <c r="N15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1408,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
         <v>1300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>600</v>
-      </c>
-      <c r="V15" s="3">
-        <v>300</v>
       </c>
       <c r="W15" s="3">
         <v>300</v>
@@ -1423,11 +1446,11 @@
         <v>300</v>
       </c>
       <c r="Y15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z15" s="3">
         <v>400</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>132800</v>
+      </c>
+      <c r="E17" s="3">
         <v>133500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>135000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>124000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>128700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>124700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>117400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>138400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>112200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>105500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>118500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R17" s="3">
         <v>88000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="3">
         <v>85400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>77500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>64500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>67200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>62500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>60100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>55200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>54800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>48700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>46100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>44400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>42400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-24500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R18" s="3">
         <v>-16600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U18" s="3">
         <v>-22500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-19400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-12000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-12100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-11600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-10200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-11600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-12900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1684,85 +1717,86 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" s="3">
         <v>-5400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>100</v>
       </c>
       <c r="AC20" s="3">
         <v>100</v>
@@ -1771,152 +1805,158 @@
         <v>100</v>
       </c>
       <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E21" s="3">
         <v>35500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>32500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>37400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>31400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R21" s="3">
         <v>-16400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="3">
         <v>-17200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-15400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-8400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-8100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-8500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-10100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-11600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E22" s="3">
         <v>10300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4600</v>
       </c>
       <c r="I22" s="3">
         <v>4600</v>
       </c>
       <c r="J22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K22" s="3">
         <v>6200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17300</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>91</v>
+      <c r="Q22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1951,159 +1991,165 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-42400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R23" s="3">
         <v>-22000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="3">
         <v>-22500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-18900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-11300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-10100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-11500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-12900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-13700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-9300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U24" s="3">
         <v>-1700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-2800</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X24" s="3">
         <v>100</v>
@@ -2112,25 +2158,28 @@
         <v>100</v>
       </c>
       <c r="Z24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>200</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>100</v>
       </c>
       <c r="AD24" s="3">
         <v>100</v>
       </c>
       <c r="AE24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R26" s="3">
         <v>-22200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U26" s="3">
         <v>-20700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-16100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-11500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-11500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-11600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-12900</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-33100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R27" s="3">
         <v>-22200</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U27" s="3">
         <v>-20700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-16100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-11500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-11500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-11600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-12900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2752,85 +2819,88 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R32" s="3">
         <v>5400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>-100</v>
       </c>
       <c r="AC32" s="3">
         <v>-100</v>
@@ -2839,99 +2909,105 @@
         <v>-100</v>
       </c>
       <c r="AE32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-33100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R33" s="3">
         <v>-22200</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U33" s="3">
         <v>-20700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-16100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-11500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-11600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-12900</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-33100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R35" s="3">
         <v>-22200</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U35" s="3">
         <v>-20700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-16100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-11500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-11600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-12900</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3268,44 +3354,45 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>304900</v>
+      </c>
+      <c r="E41" s="3">
         <v>126000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>104800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>186000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>259200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>83200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>164900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>227500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>83000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>91</v>
       </c>
@@ -3321,44 +3408,47 @@
       <c r="S41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U41" s="3">
         <v>28700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>49300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>94300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>111000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>68000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>136700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>35700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>58700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>25700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>28300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>44500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3411,79 +3501,82 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>18800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>41800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>58600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>60400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>48600</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
-      </c>
       <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>5700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>8100</v>
       </c>
-      <c r="AB42" s="3">
-        <v>0</v>
-      </c>
       <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
         <v>10000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>23900</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>24300</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E43" s="3">
         <v>208400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>63500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>71400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>72300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>167600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>51600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>144100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>29700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>91</v>
       </c>
@@ -3499,44 +3592,47 @@
       <c r="S43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U43" s="3">
         <v>109200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>26700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>35500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>47500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>93800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>25500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>34300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>35500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>73000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>12800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>18100</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3624,44 +3720,47 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E45" s="3">
         <v>49900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>53200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>65600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>44100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>91</v>
       </c>
@@ -3677,80 +3776,83 @@
       <c r="S45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U45" s="3">
         <v>39400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>38900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>24200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>20200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>18100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>21000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>7900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>8600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>11900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>6400</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>434300</v>
+      </c>
+      <c r="E46" s="3">
         <v>384200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>230000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>285000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>376400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>304100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>203000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>246800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>312200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>248000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>156800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>91</v>
       </c>
@@ -3766,44 +3868,47 @@
       <c r="S46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U46" s="3">
         <v>196000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>156800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>212600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>240000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>230500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>180400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>96700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>110100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>107300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>62900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>92900</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3891,44 +3996,47 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E48" s="3">
         <v>24100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>26000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>91</v>
       </c>
@@ -3944,80 +4052,83 @@
       <c r="S48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U48" s="3">
         <v>67000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>66400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>27500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>27100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>23900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>20900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>18900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>16900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>14700</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1700800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1737600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1773300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1809100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1744500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1778800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1790200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1824000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1846700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1879400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1894400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>91</v>
       </c>
@@ -4033,44 +4144,47 @@
       <c r="S49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U49" s="3">
         <v>108300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>64900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>18600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>19300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>20000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>20600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>30000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4247,44 +4364,47 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E52" s="3">
         <v>35500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>37800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>33400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>34600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>34300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>34800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>34000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>91</v>
       </c>
@@ -4300,44 +4420,47 @@
       <c r="S52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U52" s="3">
         <v>20200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>15400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>15900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>15000</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>14600</v>
       </c>
       <c r="Z52" s="3">
         <v>14600</v>
       </c>
       <c r="AA52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="AB52" s="3">
         <v>2700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4425,44 +4548,47 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2195200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2181400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2065900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2153500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2182900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2145200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2056100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2133800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2215300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2184800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2109100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>91</v>
       </c>
@@ -4478,44 +4604,47 @@
       <c r="S54" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U54" s="3">
         <v>391400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>306100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>274000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>302200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>293000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>242800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>156600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>135500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>130100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>83900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>111300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4580,44 +4710,45 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E57" s="3">
         <v>13500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>91</v>
       </c>
@@ -4633,44 +4764,47 @@
       <c r="S57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U57" s="3">
         <v>9700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>5400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4693,19 +4827,19 @@
         <v>4000</v>
       </c>
       <c r="J58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>5600</v>
       </c>
       <c r="M58" s="3">
         <v>5600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>91</v>
+      <c r="N58" s="3">
+        <v>5600</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>91</v>
@@ -4722,8 +4856,8 @@
       <c r="S58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4758,44 +4892,47 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>362900</v>
+      </c>
+      <c r="E59" s="3">
         <v>356600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>236500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>311300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>341800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>299900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>205200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>276000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>301400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>266600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>165600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>91</v>
       </c>
@@ -4811,80 +4948,83 @@
       <c r="S59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U59" s="3">
         <v>175100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>106700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>128400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>151800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>142600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>91200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>114400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>123900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>117200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>66200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>84400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>385500</v>
+      </c>
+      <c r="E60" s="3">
         <v>374100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>254300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>334100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>365400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>320000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>221000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>297100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>325900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>287300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>182400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>91</v>
       </c>
@@ -4900,80 +5040,83 @@
       <c r="S60" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U60" s="3">
         <v>184700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>112800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>132000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>163300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>149600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>97600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>117300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>134100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>122000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>70600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>89800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>483400</v>
+      </c>
+      <c r="E61" s="3">
         <v>484400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>485500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>486500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>487500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>488500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>489500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>490500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>515000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>771000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>772400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -5025,44 +5168,47 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E62" s="3">
         <v>47800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>56800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>66100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>71800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>85400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>89300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>97200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>91</v>
       </c>
@@ -5078,44 +5224,47 @@
       <c r="S62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U62" s="3">
         <v>50200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>47500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>12500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>12300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>12200</v>
-      </c>
-      <c r="AC62" s="3">
-        <v>11600</v>
       </c>
       <c r="AD62" s="3">
         <v>11600</v>
       </c>
       <c r="AE62" s="3">
+        <v>11600</v>
+      </c>
+      <c r="AF62" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5381,44 +5536,47 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>912900</v>
+      </c>
+      <c r="E66" s="3">
         <v>906300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>789900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>877400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>908100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>870700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>776600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>859400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>926300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1147600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1052100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>91</v>
       </c>
@@ -5434,44 +5592,47 @@
       <c r="S66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U66" s="3">
         <v>234900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>160300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>145600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>176200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>162900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>110300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>129700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>146300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>134200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>82200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>101400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>110900</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5859,44 +6030,47 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-329200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-323700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-312800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-300900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-295200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-285100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-272200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-266700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-246000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-232700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-211100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>91</v>
       </c>
@@ -5912,44 +6086,47 @@
       <c r="S72" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U72" s="3">
         <v>-304300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-283600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-267400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-259800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-248400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-235800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-224000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-234800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-222400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-209500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-196500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-183500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6215,44 +6398,47 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1282300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1275100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1276000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1276100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1274800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1274500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1279500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1274400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1289000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1037200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1057000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>91</v>
       </c>
@@ -6268,44 +6454,47 @@
       <c r="S76" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U76" s="3">
         <v>156500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>145800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>128400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>125900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>130100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>132400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>26900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-10900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-4100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-33100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>91</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R81" s="3">
         <v>-22200</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U81" s="3">
         <v>-20700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-16100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-11500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-11600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-12900</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6609,44 +6807,45 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E83" s="3">
         <v>36800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>34700</v>
       </c>
       <c r="J83" s="3">
         <v>34700</v>
       </c>
       <c r="K83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="L83" s="3">
         <v>34500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>91</v>
       </c>
@@ -6662,44 +6861,47 @@
       <c r="S83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U83" s="3">
         <v>5300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3500</v>
-      </c>
-      <c r="V83" s="3">
-        <v>3000</v>
       </c>
       <c r="W83" s="3">
         <v>3000</v>
       </c>
       <c r="X83" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Y83" s="3">
         <v>2800</v>
       </c>
       <c r="Z83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AA83" s="3">
         <v>2100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1300</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7143,44 +7357,47 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>182800</v>
+      </c>
+      <c r="E89" s="3">
         <v>25200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-80900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>179000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-65900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>161200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-58700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>91</v>
       </c>
@@ -7196,44 +7413,47 @@
       <c r="S89" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U89" s="3">
         <v>-14400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-36200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-20200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>54700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-22100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-12300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-25100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>43600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-11900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-27700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-14900</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7265,44 +7485,45 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1300</v>
       </c>
       <c r="F91" s="3">
         <v>-1300</v>
       </c>
       <c r="G91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1200</v>
       </c>
       <c r="L91" s="3">
         <v>-1200</v>
       </c>
       <c r="M91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>91</v>
       </c>
@@ -7318,44 +7539,47 @@
       <c r="S91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U91" s="3">
         <v>-2700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7532,44 +7759,47 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-90900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>45600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>91</v>
       </c>
@@ -7585,44 +7815,47 @@
       <c r="S94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U94" s="3">
         <v>-9900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-13100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-51000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-12000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>6200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>10500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-25900</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8010,44 +8253,47 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-47800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-50100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>91</v>
       </c>
@@ -8063,68 +8309,71 @@
       <c r="S100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U100" s="3">
         <v>3700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>112500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>3200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>2500</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>91</v>
       </c>
@@ -8140,8 +8389,8 @@
       <c r="O101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -8188,44 +8437,47 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E102" s="3">
         <v>20700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-81200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-73200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>175800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-63900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-62600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>157300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-63200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>91</v>
       </c>
@@ -8241,40 +8493,43 @@
       <c r="S102" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U102" s="3">
         <v>-20600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-45000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-16700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>43100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-68800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>101000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-23000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>33000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-16300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-14400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-3100</v>
       </c>
     </row>
